--- a/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
@@ -421,28 +421,28 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.995547073174302</v>
+        <v>0.9955470731742992</v>
       </c>
       <c r="D2">
-        <v>1.014860118704999</v>
+        <v>1.014860118704997</v>
       </c>
       <c r="E2">
-        <v>1.0020885119708</v>
+        <v>1.002088511970798</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04317076021044</v>
+        <v>1.043170760210439</v>
       </c>
       <c r="J2">
-        <v>1.017861791167459</v>
+        <v>1.017861791167456</v>
       </c>
       <c r="K2">
-        <v>1.026116238777652</v>
+        <v>1.02611623877765</v>
       </c>
       <c r="L2">
-        <v>1.013518826987748</v>
+        <v>1.013518826987746</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045747735334715</v>
+        <v>1.045747735334714</v>
       </c>
       <c r="J3">
-        <v>1.02326031201972</v>
+        <v>1.023260312019719</v>
       </c>
       <c r="K3">
-        <v>1.030859185465523</v>
+        <v>1.030859185465522</v>
       </c>
       <c r="L3">
         <v>1.018686303261189</v>
@@ -488,7 +488,7 @@
         <v>1.007425329309853</v>
       </c>
       <c r="D4">
-        <v>1.024009002719261</v>
+        <v>1.02400900271926</v>
       </c>
       <c r="E4">
         <v>1.011968438576286</v>
@@ -500,13 +500,13 @@
         <v>1.047348559991724</v>
       </c>
       <c r="J4">
-        <v>1.02664098287528</v>
+        <v>1.026640982875279</v>
       </c>
       <c r="K4">
         <v>1.033826044808814</v>
       </c>
       <c r="L4">
-        <v>1.021924529674895</v>
+        <v>1.021924529674894</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,13 +517,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009317252520628</v>
+        <v>1.009317252520629</v>
       </c>
       <c r="D5">
-        <v>1.025466741558603</v>
+        <v>1.025466741558604</v>
       </c>
       <c r="E5">
-        <v>1.013544855491422</v>
+        <v>1.013544855491423</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -532,13 +532,13 @@
         <v>1.048006300808697</v>
       </c>
       <c r="J5">
-        <v>1.028036665795367</v>
+        <v>1.028036665795368</v>
       </c>
       <c r="K5">
-        <v>1.035050076394317</v>
+        <v>1.035050076394318</v>
       </c>
       <c r="L5">
-        <v>1.023261937593001</v>
+        <v>1.023261937593002</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048115863912781</v>
+        <v>1.04811586391278</v>
       </c>
       <c r="J6">
         <v>1.028269547017308</v>
@@ -581,22 +581,22 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007450735833577</v>
+        <v>1.007450735833578</v>
       </c>
       <c r="D7">
-        <v>1.024028577938643</v>
+        <v>1.024028577938644</v>
       </c>
       <c r="E7">
-        <v>1.011989603132126</v>
+        <v>1.011989603132127</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047357407766775</v>
+        <v>1.047357407766776</v>
       </c>
       <c r="J7">
-        <v>1.026659730705561</v>
+        <v>1.026659730705562</v>
       </c>
       <c r="K7">
         <v>1.033842490145673</v>
@@ -613,28 +613,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9980453676686349</v>
+        <v>0.9980453676686358</v>
       </c>
       <c r="D8">
         <v>1.016783731002443</v>
       </c>
       <c r="E8">
-        <v>1.004164001886259</v>
+        <v>1.00416400188626</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04405590867672</v>
+        <v>1.044055908676721</v>
       </c>
       <c r="J8">
-        <v>1.019710421987743</v>
+        <v>1.019710421987744</v>
       </c>
       <c r="K8">
         <v>1.027741055768903</v>
       </c>
       <c r="L8">
-        <v>1.015287863008735</v>
+        <v>1.015287863008736</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +645,28 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9802642234535491</v>
+        <v>0.980264223453553</v>
       </c>
       <c r="D9">
-        <v>1.003103622820155</v>
+        <v>1.003103622820159</v>
       </c>
       <c r="E9">
-        <v>0.9894214269540419</v>
+        <v>0.9894214269540452</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037692351629493</v>
+        <v>1.037692351629495</v>
       </c>
       <c r="J9">
-        <v>1.006533682692848</v>
+        <v>1.006533682692852</v>
       </c>
       <c r="K9">
-        <v>1.016146545806337</v>
+        <v>1.016146545806341</v>
       </c>
       <c r="L9">
-        <v>1.002688497930773</v>
+        <v>1.002688497930776</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,13 +677,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9674462087309241</v>
+        <v>0.9674462087309245</v>
       </c>
       <c r="D10">
-        <v>0.993262322020406</v>
+        <v>0.9932623220204063</v>
       </c>
       <c r="E10">
-        <v>0.9788368306308963</v>
+        <v>0.9788368306308968</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>1.033027038118809</v>
       </c>
       <c r="J10">
-        <v>0.9970137198945384</v>
+        <v>0.9970137198945386</v>
       </c>
       <c r="K10">
-        <v>1.007754302333693</v>
+        <v>1.007754302333694</v>
       </c>
       <c r="L10">
-        <v>0.993599002981958</v>
+        <v>0.9935990029819584</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -712,10 +712,10 @@
         <v>0.9616271119989278</v>
       </c>
       <c r="D11">
-        <v>0.9888017715385694</v>
+        <v>0.9888017715385696</v>
       </c>
       <c r="E11">
-        <v>0.974043830841835</v>
+        <v>0.9740438308418355</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.030891875313439</v>
       </c>
       <c r="J11">
-        <v>0.9926882116697134</v>
+        <v>0.9926882116697137</v>
       </c>
       <c r="K11">
         <v>1.00393800569477</v>
       </c>
       <c r="L11">
-        <v>0.9894724242717966</v>
+        <v>0.9894724242717969</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +741,28 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9594212673929802</v>
+        <v>0.9594212673929777</v>
       </c>
       <c r="D12">
-        <v>0.9871122161819026</v>
+        <v>0.9871122161819001</v>
       </c>
       <c r="E12">
-        <v>0.9722289684438939</v>
+        <v>0.9722289684438919</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030080038328182</v>
+        <v>1.030080038328181</v>
       </c>
       <c r="J12">
-        <v>0.9910481250286237</v>
+        <v>0.9910481250286214</v>
       </c>
       <c r="K12">
-        <v>1.002490562234324</v>
+        <v>1.002490562234322</v>
       </c>
       <c r="L12">
-        <v>0.9879082849565328</v>
+        <v>0.9879082849565309</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9598965066030249</v>
+        <v>0.9598965066030267</v>
       </c>
       <c r="D13">
-        <v>0.9874761604263864</v>
+        <v>0.9874761604263878</v>
       </c>
       <c r="E13">
-        <v>0.9726198778784975</v>
+        <v>0.9726198778784992</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.030255053817116</v>
       </c>
       <c r="J13">
-        <v>0.9914014907585915</v>
+        <v>0.9914014907585932</v>
       </c>
       <c r="K13">
-        <v>1.002802440675433</v>
+        <v>1.002802440675434</v>
       </c>
       <c r="L13">
-        <v>0.9882452636361121</v>
+        <v>0.9882452636361135</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +805,28 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.961445706419204</v>
+        <v>0.9614457064192062</v>
       </c>
       <c r="D14">
-        <v>0.9886627970232543</v>
+        <v>0.9886627970232565</v>
       </c>
       <c r="E14">
-        <v>0.9738945369818782</v>
+        <v>0.9738945369818798</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03082516008623</v>
+        <v>1.030825160086231</v>
       </c>
       <c r="J14">
-        <v>0.99255334086158</v>
+        <v>0.9925533408615821</v>
       </c>
       <c r="K14">
-        <v>1.003818985189814</v>
+        <v>1.003818985189817</v>
       </c>
       <c r="L14">
-        <v>0.9893437882613917</v>
+        <v>0.9893437882613932</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9623942110650678</v>
+        <v>0.962394211065068</v>
       </c>
       <c r="D15">
-        <v>0.9893894992863225</v>
+        <v>0.9893894992863227</v>
       </c>
       <c r="E15">
-        <v>0.9746752241962761</v>
+        <v>0.9746752241962757</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>1.004441269186035</v>
       </c>
       <c r="L15">
-        <v>0.9900163856584199</v>
+        <v>0.9900163856584197</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,13 +869,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9678264113991285</v>
+        <v>0.9678264113991291</v>
       </c>
       <c r="D16">
-        <v>0.9935539281111078</v>
+        <v>0.9935539281111087</v>
       </c>
       <c r="E16">
-        <v>0.9791502582257336</v>
+        <v>0.9791502582257341</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -884,13 +884,13 @@
         <v>1.033166197833173</v>
       </c>
       <c r="J16">
-        <v>0.9972962711265471</v>
+        <v>0.9972962711265481</v>
       </c>
       <c r="K16">
-        <v>1.008003528772522</v>
+        <v>1.008003528772523</v>
       </c>
       <c r="L16">
-        <v>0.993868630204241</v>
+        <v>0.9938686302042417</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,10 +901,10 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9711592698443284</v>
+        <v>0.9711592698443282</v>
       </c>
       <c r="D17">
-        <v>0.9961109821868566</v>
+        <v>0.9961109821868565</v>
       </c>
       <c r="E17">
         <v>0.9818991578760163</v>
@@ -913,16 +913,16 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034384147361221</v>
+        <v>1.03438414736122</v>
       </c>
       <c r="J17">
-        <v>0.9997727192931316</v>
+        <v>0.9997727192931317</v>
       </c>
       <c r="K17">
         <v>1.010187545317303</v>
       </c>
       <c r="L17">
-        <v>0.9962321826917716</v>
+        <v>0.9962321826917715</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -933,28 +933,28 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9730776297372035</v>
+        <v>0.9730776297372025</v>
       </c>
       <c r="D18">
-        <v>0.9975834546754903</v>
+        <v>0.9975834546754897</v>
       </c>
       <c r="E18">
-        <v>0.9834825251389558</v>
+        <v>0.9834825251389548</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035083564061619</v>
+        <v>1.035083564061618</v>
       </c>
       <c r="J18">
-        <v>1.001197786035295</v>
+        <v>1.001197786035294</v>
       </c>
       <c r="K18">
         <v>1.011444031621932</v>
       </c>
       <c r="L18">
-        <v>0.9975925957486153</v>
+        <v>0.9975925957486146</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,28 +965,28 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9737275042902191</v>
+        <v>0.9737275042902177</v>
       </c>
       <c r="D19">
-        <v>0.9980823831892319</v>
+        <v>0.9980823831892305</v>
       </c>
       <c r="E19">
-        <v>0.9840191017874637</v>
+        <v>0.9840191017874627</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035320223691297</v>
+        <v>1.035320223691296</v>
       </c>
       <c r="J19">
-        <v>1.001680486407217</v>
+        <v>1.001680486407216</v>
       </c>
       <c r="K19">
-        <v>1.011869577845266</v>
+        <v>1.011869577845264</v>
       </c>
       <c r="L19">
-        <v>0.9980534489638713</v>
+        <v>0.9980534489638703</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,28 +997,28 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9708043648307713</v>
+        <v>0.970804364830773</v>
       </c>
       <c r="D20">
-        <v>0.9958386200986502</v>
+        <v>0.9958386200986517</v>
       </c>
       <c r="E20">
-        <v>0.9816063181275414</v>
+        <v>0.9816063181275428</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034254619839514</v>
+        <v>1.034254619839515</v>
       </c>
       <c r="J20">
-        <v>0.9995090462685924</v>
+        <v>0.999509046268594</v>
       </c>
       <c r="K20">
-        <v>1.009955039168484</v>
+        <v>1.009955039168485</v>
       </c>
       <c r="L20">
-        <v>0.9959804973785265</v>
+        <v>0.9959804973785278</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,28 +1029,28 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9609907653952675</v>
+        <v>0.9609907653952716</v>
       </c>
       <c r="D21">
-        <v>0.9883142892479222</v>
+        <v>0.9883142892479257</v>
       </c>
       <c r="E21">
-        <v>0.973520161024607</v>
+        <v>0.9735201610246105</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030657808078029</v>
+        <v>1.030657808078031</v>
       </c>
       <c r="J21">
-        <v>0.9922150966271034</v>
+        <v>0.9922150966271069</v>
       </c>
       <c r="K21">
-        <v>1.00352048534221</v>
+        <v>1.003520485342213</v>
       </c>
       <c r="L21">
-        <v>0.9890211887796955</v>
+        <v>0.9890211887796988</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9545614369796945</v>
+        <v>0.9545614369796943</v>
       </c>
       <c r="D22">
-        <v>0.983392537521548</v>
+        <v>0.9833925375215476</v>
       </c>
       <c r="E22">
-        <v>0.9682344956951088</v>
+        <v>0.9682344956951089</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1079,10 +1079,10 @@
         <v>0.9874341422503701</v>
       </c>
       <c r="K22">
-        <v>0.999300330107198</v>
+        <v>0.9993003301071978</v>
       </c>
       <c r="L22">
-        <v>0.9844626370700619</v>
+        <v>0.9844626370700618</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9579957901223044</v>
+        <v>0.9579957901223055</v>
       </c>
       <c r="D23">
-        <v>0.986020777716255</v>
+        <v>0.9860207777162558</v>
       </c>
       <c r="E23">
-        <v>0.9710567499149719</v>
+        <v>0.9710567499149728</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.029554729992564</v>
       </c>
       <c r="J23">
-        <v>0.9899881565730653</v>
+        <v>0.989988156573066</v>
       </c>
       <c r="K23">
-        <v>1.00155498083726</v>
+        <v>1.001554980837261</v>
       </c>
       <c r="L23">
-        <v>0.9868975494549125</v>
+        <v>0.9868975494549131</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9709648100699467</v>
+        <v>0.9709648100699465</v>
       </c>
       <c r="D24">
-        <v>0.9959617473555</v>
+        <v>0.9959617473554998</v>
       </c>
       <c r="E24">
-        <v>0.9817387014480323</v>
+        <v>0.981738701448032</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.034313181613688</v>
       </c>
       <c r="J24">
-        <v>0.999628248510065</v>
+        <v>0.9996282485100647</v>
       </c>
       <c r="K24">
-        <v>1.010060152317316</v>
+        <v>1.010060152317315</v>
       </c>
       <c r="L24">
-        <v>0.996094279204696</v>
+        <v>0.9960942792046956</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,28 +1157,28 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9850187401050302</v>
+        <v>0.9850187401050335</v>
       </c>
       <c r="D25">
-        <v>1.006758795175357</v>
+        <v>1.00675879517536</v>
       </c>
       <c r="E25">
-        <v>0.9933567388966369</v>
+        <v>0.9933567388966398</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039407535707808</v>
+        <v>1.03940753570781</v>
       </c>
       <c r="J25">
-        <v>1.01006102021454</v>
+        <v>1.010061020214544</v>
       </c>
       <c r="K25">
-        <v>1.019253087842934</v>
+        <v>1.019253087842937</v>
       </c>
       <c r="L25">
-        <v>1.006059065828326</v>
+        <v>1.006059065828329</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
@@ -421,28 +421,28 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9955470731742992</v>
+        <v>0.995547073174302</v>
       </c>
       <c r="D2">
-        <v>1.014860118704997</v>
+        <v>1.014860118704999</v>
       </c>
       <c r="E2">
-        <v>1.002088511970798</v>
+        <v>1.0020885119708</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043170760210439</v>
+        <v>1.04317076021044</v>
       </c>
       <c r="J2">
-        <v>1.017861791167456</v>
+        <v>1.017861791167459</v>
       </c>
       <c r="K2">
-        <v>1.02611623877765</v>
+        <v>1.026116238777652</v>
       </c>
       <c r="L2">
-        <v>1.013518826987746</v>
+        <v>1.013518826987748</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -465,13 +465,13 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045747735334714</v>
+        <v>1.045747735334715</v>
       </c>
       <c r="J3">
-        <v>1.023260312019719</v>
+        <v>1.02326031201972</v>
       </c>
       <c r="K3">
-        <v>1.030859185465522</v>
+        <v>1.030859185465523</v>
       </c>
       <c r="L3">
         <v>1.018686303261189</v>
@@ -488,7 +488,7 @@
         <v>1.007425329309853</v>
       </c>
       <c r="D4">
-        <v>1.02400900271926</v>
+        <v>1.024009002719261</v>
       </c>
       <c r="E4">
         <v>1.011968438576286</v>
@@ -500,13 +500,13 @@
         <v>1.047348559991724</v>
       </c>
       <c r="J4">
-        <v>1.026640982875279</v>
+        <v>1.02664098287528</v>
       </c>
       <c r="K4">
         <v>1.033826044808814</v>
       </c>
       <c r="L4">
-        <v>1.021924529674894</v>
+        <v>1.021924529674895</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,13 +517,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009317252520629</v>
+        <v>1.009317252520628</v>
       </c>
       <c r="D5">
-        <v>1.025466741558604</v>
+        <v>1.025466741558603</v>
       </c>
       <c r="E5">
-        <v>1.013544855491423</v>
+        <v>1.013544855491422</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -532,13 +532,13 @@
         <v>1.048006300808697</v>
       </c>
       <c r="J5">
-        <v>1.028036665795368</v>
+        <v>1.028036665795367</v>
       </c>
       <c r="K5">
-        <v>1.035050076394318</v>
+        <v>1.035050076394317</v>
       </c>
       <c r="L5">
-        <v>1.023261937593002</v>
+        <v>1.023261937593001</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04811586391278</v>
+        <v>1.048115863912781</v>
       </c>
       <c r="J6">
         <v>1.028269547017308</v>
@@ -581,22 +581,22 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007450735833578</v>
+        <v>1.007450735833577</v>
       </c>
       <c r="D7">
-        <v>1.024028577938644</v>
+        <v>1.024028577938643</v>
       </c>
       <c r="E7">
-        <v>1.011989603132127</v>
+        <v>1.011989603132126</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047357407766776</v>
+        <v>1.047357407766775</v>
       </c>
       <c r="J7">
-        <v>1.026659730705562</v>
+        <v>1.026659730705561</v>
       </c>
       <c r="K7">
         <v>1.033842490145673</v>
@@ -613,28 +613,28 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9980453676686358</v>
+        <v>0.9980453676686349</v>
       </c>
       <c r="D8">
         <v>1.016783731002443</v>
       </c>
       <c r="E8">
-        <v>1.00416400188626</v>
+        <v>1.004164001886259</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044055908676721</v>
+        <v>1.04405590867672</v>
       </c>
       <c r="J8">
-        <v>1.019710421987744</v>
+        <v>1.019710421987743</v>
       </c>
       <c r="K8">
         <v>1.027741055768903</v>
       </c>
       <c r="L8">
-        <v>1.015287863008736</v>
+        <v>1.015287863008735</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +645,28 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.980264223453553</v>
+        <v>0.9802642234535491</v>
       </c>
       <c r="D9">
-        <v>1.003103622820159</v>
+        <v>1.003103622820155</v>
       </c>
       <c r="E9">
-        <v>0.9894214269540452</v>
+        <v>0.9894214269540419</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037692351629495</v>
+        <v>1.037692351629493</v>
       </c>
       <c r="J9">
-        <v>1.006533682692852</v>
+        <v>1.006533682692848</v>
       </c>
       <c r="K9">
-        <v>1.016146545806341</v>
+        <v>1.016146545806337</v>
       </c>
       <c r="L9">
-        <v>1.002688497930776</v>
+        <v>1.002688497930773</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,13 +677,13 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9674462087309245</v>
+        <v>0.9674462087309241</v>
       </c>
       <c r="D10">
-        <v>0.9932623220204063</v>
+        <v>0.993262322020406</v>
       </c>
       <c r="E10">
-        <v>0.9788368306308968</v>
+        <v>0.9788368306308963</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -692,13 +692,13 @@
         <v>1.033027038118809</v>
       </c>
       <c r="J10">
-        <v>0.9970137198945386</v>
+        <v>0.9970137198945384</v>
       </c>
       <c r="K10">
-        <v>1.007754302333694</v>
+        <v>1.007754302333693</v>
       </c>
       <c r="L10">
-        <v>0.9935990029819584</v>
+        <v>0.993599002981958</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -712,10 +712,10 @@
         <v>0.9616271119989278</v>
       </c>
       <c r="D11">
-        <v>0.9888017715385696</v>
+        <v>0.9888017715385694</v>
       </c>
       <c r="E11">
-        <v>0.9740438308418355</v>
+        <v>0.974043830841835</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -724,13 +724,13 @@
         <v>1.030891875313439</v>
       </c>
       <c r="J11">
-        <v>0.9926882116697137</v>
+        <v>0.9926882116697134</v>
       </c>
       <c r="K11">
         <v>1.00393800569477</v>
       </c>
       <c r="L11">
-        <v>0.9894724242717969</v>
+        <v>0.9894724242717966</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +741,28 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9594212673929777</v>
+        <v>0.9594212673929802</v>
       </c>
       <c r="D12">
-        <v>0.9871122161819001</v>
+        <v>0.9871122161819026</v>
       </c>
       <c r="E12">
-        <v>0.9722289684438919</v>
+        <v>0.9722289684438939</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030080038328181</v>
+        <v>1.030080038328182</v>
       </c>
       <c r="J12">
-        <v>0.9910481250286214</v>
+        <v>0.9910481250286237</v>
       </c>
       <c r="K12">
-        <v>1.002490562234322</v>
+        <v>1.002490562234324</v>
       </c>
       <c r="L12">
-        <v>0.9879082849565309</v>
+        <v>0.9879082849565328</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,13 +773,13 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9598965066030267</v>
+        <v>0.9598965066030249</v>
       </c>
       <c r="D13">
-        <v>0.9874761604263878</v>
+        <v>0.9874761604263864</v>
       </c>
       <c r="E13">
-        <v>0.9726198778784992</v>
+        <v>0.9726198778784975</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -788,13 +788,13 @@
         <v>1.030255053817116</v>
       </c>
       <c r="J13">
-        <v>0.9914014907585932</v>
+        <v>0.9914014907585915</v>
       </c>
       <c r="K13">
-        <v>1.002802440675434</v>
+        <v>1.002802440675433</v>
       </c>
       <c r="L13">
-        <v>0.9882452636361135</v>
+        <v>0.9882452636361121</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +805,28 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9614457064192062</v>
+        <v>0.961445706419204</v>
       </c>
       <c r="D14">
-        <v>0.9886627970232565</v>
+        <v>0.9886627970232543</v>
       </c>
       <c r="E14">
-        <v>0.9738945369818798</v>
+        <v>0.9738945369818782</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030825160086231</v>
+        <v>1.03082516008623</v>
       </c>
       <c r="J14">
-        <v>0.9925533408615821</v>
+        <v>0.99255334086158</v>
       </c>
       <c r="K14">
-        <v>1.003818985189817</v>
+        <v>1.003818985189814</v>
       </c>
       <c r="L14">
-        <v>0.9893437882613932</v>
+        <v>0.9893437882613917</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,13 +837,13 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.962394211065068</v>
+        <v>0.9623942110650678</v>
       </c>
       <c r="D15">
-        <v>0.9893894992863227</v>
+        <v>0.9893894992863225</v>
       </c>
       <c r="E15">
-        <v>0.9746752241962757</v>
+        <v>0.9746752241962761</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -858,7 +858,7 @@
         <v>1.004441269186035</v>
       </c>
       <c r="L15">
-        <v>0.9900163856584197</v>
+        <v>0.9900163856584199</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,13 +869,13 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9678264113991291</v>
+        <v>0.9678264113991285</v>
       </c>
       <c r="D16">
-        <v>0.9935539281111087</v>
+        <v>0.9935539281111078</v>
       </c>
       <c r="E16">
-        <v>0.9791502582257341</v>
+        <v>0.9791502582257336</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -884,13 +884,13 @@
         <v>1.033166197833173</v>
       </c>
       <c r="J16">
-        <v>0.9972962711265481</v>
+        <v>0.9972962711265471</v>
       </c>
       <c r="K16">
-        <v>1.008003528772523</v>
+        <v>1.008003528772522</v>
       </c>
       <c r="L16">
-        <v>0.9938686302042417</v>
+        <v>0.993868630204241</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -901,10 +901,10 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9711592698443282</v>
+        <v>0.9711592698443284</v>
       </c>
       <c r="D17">
-        <v>0.9961109821868565</v>
+        <v>0.9961109821868566</v>
       </c>
       <c r="E17">
         <v>0.9818991578760163</v>
@@ -913,16 +913,16 @@
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03438414736122</v>
+        <v>1.034384147361221</v>
       </c>
       <c r="J17">
-        <v>0.9997727192931317</v>
+        <v>0.9997727192931316</v>
       </c>
       <c r="K17">
         <v>1.010187545317303</v>
       </c>
       <c r="L17">
-        <v>0.9962321826917715</v>
+        <v>0.9962321826917716</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -933,28 +933,28 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9730776297372025</v>
+        <v>0.9730776297372035</v>
       </c>
       <c r="D18">
-        <v>0.9975834546754897</v>
+        <v>0.9975834546754903</v>
       </c>
       <c r="E18">
-        <v>0.9834825251389548</v>
+        <v>0.9834825251389558</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035083564061618</v>
+        <v>1.035083564061619</v>
       </c>
       <c r="J18">
-        <v>1.001197786035294</v>
+        <v>1.001197786035295</v>
       </c>
       <c r="K18">
         <v>1.011444031621932</v>
       </c>
       <c r="L18">
-        <v>0.9975925957486146</v>
+        <v>0.9975925957486153</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -965,28 +965,28 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9737275042902177</v>
+        <v>0.9737275042902191</v>
       </c>
       <c r="D19">
-        <v>0.9980823831892305</v>
+        <v>0.9980823831892319</v>
       </c>
       <c r="E19">
-        <v>0.9840191017874627</v>
+        <v>0.9840191017874637</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035320223691296</v>
+        <v>1.035320223691297</v>
       </c>
       <c r="J19">
-        <v>1.001680486407216</v>
+        <v>1.001680486407217</v>
       </c>
       <c r="K19">
-        <v>1.011869577845264</v>
+        <v>1.011869577845266</v>
       </c>
       <c r="L19">
-        <v>0.9980534489638703</v>
+        <v>0.9980534489638713</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -997,28 +997,28 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.970804364830773</v>
+        <v>0.9708043648307713</v>
       </c>
       <c r="D20">
-        <v>0.9958386200986517</v>
+        <v>0.9958386200986502</v>
       </c>
       <c r="E20">
-        <v>0.9816063181275428</v>
+        <v>0.9816063181275414</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034254619839515</v>
+        <v>1.034254619839514</v>
       </c>
       <c r="J20">
-        <v>0.999509046268594</v>
+        <v>0.9995090462685924</v>
       </c>
       <c r="K20">
-        <v>1.009955039168485</v>
+        <v>1.009955039168484</v>
       </c>
       <c r="L20">
-        <v>0.9959804973785278</v>
+        <v>0.9959804973785265</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1029,28 +1029,28 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9609907653952716</v>
+        <v>0.9609907653952675</v>
       </c>
       <c r="D21">
-        <v>0.9883142892479257</v>
+        <v>0.9883142892479222</v>
       </c>
       <c r="E21">
-        <v>0.9735201610246105</v>
+        <v>0.973520161024607</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030657808078031</v>
+        <v>1.030657808078029</v>
       </c>
       <c r="J21">
-        <v>0.9922150966271069</v>
+        <v>0.9922150966271034</v>
       </c>
       <c r="K21">
-        <v>1.003520485342213</v>
+        <v>1.00352048534221</v>
       </c>
       <c r="L21">
-        <v>0.9890211887796988</v>
+        <v>0.9890211887796955</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1061,13 +1061,13 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9545614369796943</v>
+        <v>0.9545614369796945</v>
       </c>
       <c r="D22">
-        <v>0.9833925375215476</v>
+        <v>0.983392537521548</v>
       </c>
       <c r="E22">
-        <v>0.9682344956951089</v>
+        <v>0.9682344956951088</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1079,10 +1079,10 @@
         <v>0.9874341422503701</v>
       </c>
       <c r="K22">
-        <v>0.9993003301071978</v>
+        <v>0.999300330107198</v>
       </c>
       <c r="L22">
-        <v>0.9844626370700618</v>
+        <v>0.9844626370700619</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1093,13 +1093,13 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9579957901223055</v>
+        <v>0.9579957901223044</v>
       </c>
       <c r="D23">
-        <v>0.9860207777162558</v>
+        <v>0.986020777716255</v>
       </c>
       <c r="E23">
-        <v>0.9710567499149728</v>
+        <v>0.9710567499149719</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1108,13 +1108,13 @@
         <v>1.029554729992564</v>
       </c>
       <c r="J23">
-        <v>0.989988156573066</v>
+        <v>0.9899881565730653</v>
       </c>
       <c r="K23">
-        <v>1.001554980837261</v>
+        <v>1.00155498083726</v>
       </c>
       <c r="L23">
-        <v>0.9868975494549131</v>
+        <v>0.9868975494549125</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1125,13 +1125,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9709648100699465</v>
+        <v>0.9709648100699467</v>
       </c>
       <c r="D24">
-        <v>0.9959617473554998</v>
+        <v>0.9959617473555</v>
       </c>
       <c r="E24">
-        <v>0.981738701448032</v>
+        <v>0.9817387014480323</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1140,13 +1140,13 @@
         <v>1.034313181613688</v>
       </c>
       <c r="J24">
-        <v>0.9996282485100647</v>
+        <v>0.999628248510065</v>
       </c>
       <c r="K24">
-        <v>1.010060152317315</v>
+        <v>1.010060152317316</v>
       </c>
       <c r="L24">
-        <v>0.9960942792046956</v>
+        <v>0.996094279204696</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1157,28 +1157,28 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9850187401050335</v>
+        <v>0.9850187401050302</v>
       </c>
       <c r="D25">
-        <v>1.00675879517536</v>
+        <v>1.006758795175357</v>
       </c>
       <c r="E25">
-        <v>0.9933567388966398</v>
+        <v>0.9933567388966369</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03940753570781</v>
+        <v>1.039407535707808</v>
       </c>
       <c r="J25">
-        <v>1.010061020214544</v>
+        <v>1.01006102021454</v>
       </c>
       <c r="K25">
-        <v>1.019253087842937</v>
+        <v>1.019253087842934</v>
       </c>
       <c r="L25">
-        <v>1.006059065828329</v>
+        <v>1.006059065828326</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
@@ -421,28 +421,31 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.995547073174302</v>
+        <v>0.9980902176840365</v>
       </c>
       <c r="D2">
-        <v>1.014860118704999</v>
+        <v>1.016930662447291</v>
       </c>
       <c r="E2">
-        <v>1.0020885119708</v>
+        <v>1.004278377467058</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04317076021044</v>
+        <v>1.044330637086859</v>
       </c>
       <c r="J2">
-        <v>1.017861791167459</v>
+        <v>1.020328200444352</v>
       </c>
       <c r="K2">
-        <v>1.026116238777652</v>
+        <v>1.028159059608113</v>
       </c>
       <c r="L2">
-        <v>1.013518826987748</v>
+        <v>1.015678427766972</v>
+      </c>
+      <c r="N2">
+        <v>1.021777183522263</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,28 +456,31 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.002846958218487</v>
+        <v>1.005371608242275</v>
       </c>
       <c r="D3">
-        <v>1.020481834244577</v>
+        <v>1.02254054130895</v>
       </c>
       <c r="E3">
-        <v>1.008156736325284</v>
+        <v>1.010333532191241</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045747735334715</v>
+        <v>1.046902459733956</v>
       </c>
       <c r="J3">
-        <v>1.02326031201972</v>
+        <v>1.025716901272578</v>
       </c>
       <c r="K3">
-        <v>1.030859185465523</v>
+        <v>1.032892911629532</v>
       </c>
       <c r="L3">
-        <v>1.018686303261189</v>
+        <v>1.020835879105778</v>
+      </c>
+      <c r="N3">
+        <v>1.027173536923758</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -485,28 +491,31 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.007425329309853</v>
+        <v>1.009939145934595</v>
       </c>
       <c r="D4">
-        <v>1.024009002719261</v>
+        <v>1.026060821967199</v>
       </c>
       <c r="E4">
-        <v>1.011968438576286</v>
+        <v>1.014137611639709</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047348559991724</v>
+        <v>1.048500363164773</v>
       </c>
       <c r="J4">
-        <v>1.02664098287528</v>
+        <v>1.029091979718285</v>
       </c>
       <c r="K4">
-        <v>1.033826044808814</v>
+        <v>1.035854570109027</v>
       </c>
       <c r="L4">
-        <v>1.021924529674895</v>
+        <v>1.024068350799486</v>
+      </c>
+      <c r="N4">
+        <v>1.030553408367985</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -517,28 +526,31 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009317252520628</v>
+        <v>1.011826762388521</v>
       </c>
       <c r="D5">
-        <v>1.025466741558603</v>
+        <v>1.027515834176724</v>
       </c>
       <c r="E5">
-        <v>1.013544855491422</v>
+        <v>1.015711006426471</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048006300808697</v>
+        <v>1.049156966694335</v>
       </c>
       <c r="J5">
-        <v>1.028036665795367</v>
+        <v>1.03048547810356</v>
       </c>
       <c r="K5">
-        <v>1.035050076394317</v>
+        <v>1.037076565125783</v>
       </c>
       <c r="L5">
-        <v>1.023261937593001</v>
+        <v>1.025403499607731</v>
+      </c>
+      <c r="N5">
+        <v>1.031948885680804</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -549,28 +561,31 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009633042846502</v>
+        <v>1.012141843472643</v>
       </c>
       <c r="D6">
-        <v>1.025710068939911</v>
+        <v>1.027758713236484</v>
       </c>
       <c r="E6">
-        <v>1.013808057367874</v>
+        <v>1.015973711115269</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048115863912781</v>
+        <v>1.049266343952515</v>
       </c>
       <c r="J6">
-        <v>1.028269547017308</v>
+        <v>1.030718001872546</v>
       </c>
       <c r="K6">
-        <v>1.035254267623664</v>
+        <v>1.037280422823614</v>
       </c>
       <c r="L6">
-        <v>1.02348512630402</v>
+        <v>1.025626317992976</v>
+      </c>
+      <c r="N6">
+        <v>1.032181739660212</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -581,28 +596,31 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.007450735833577</v>
+        <v>1.009964493967584</v>
       </c>
       <c r="D7">
-        <v>1.024028577938643</v>
+        <v>1.026080360108368</v>
       </c>
       <c r="E7">
-        <v>1.011989603132126</v>
+        <v>1.014158735117773</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047357407766775</v>
+        <v>1.048509195396422</v>
       </c>
       <c r="J7">
-        <v>1.026659730705561</v>
+        <v>1.029110697723898</v>
       </c>
       <c r="K7">
-        <v>1.033842490145673</v>
+        <v>1.035870987661295</v>
       </c>
       <c r="L7">
-        <v>1.021942492612308</v>
+        <v>1.024086282939727</v>
+      </c>
+      <c r="N7">
+        <v>1.030572152955313</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -613,28 +631,31 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9980453676686349</v>
+        <v>1.000582011802171</v>
       </c>
       <c r="D8">
-        <v>1.016783731002443</v>
+        <v>1.018850104721343</v>
       </c>
       <c r="E8">
-        <v>1.004164001886259</v>
+        <v>1.00634926667707</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04405590867672</v>
+        <v>1.045213953619732</v>
       </c>
       <c r="J8">
-        <v>1.019710421987743</v>
+        <v>1.022173344595511</v>
       </c>
       <c r="K8">
-        <v>1.027741055768903</v>
+        <v>1.029780652460826</v>
       </c>
       <c r="L8">
-        <v>1.015287863008735</v>
+        <v>1.01744391452628</v>
+      </c>
+      <c r="N8">
+        <v>1.023624947989758</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -645,28 +666,31 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9802642234535491</v>
+        <v>0.982851135812485</v>
       </c>
       <c r="D9">
-        <v>1.003103622820155</v>
+        <v>1.005202440429484</v>
       </c>
       <c r="E9">
-        <v>0.9894214269540419</v>
+        <v>0.9916424137935697</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037692351629493</v>
+        <v>1.038865007761269</v>
       </c>
       <c r="J9">
-        <v>1.006533682692848</v>
+        <v>1.009024345232134</v>
       </c>
       <c r="K9">
-        <v>1.016146545806337</v>
+        <v>1.018211671830838</v>
       </c>
       <c r="L9">
-        <v>1.002688497930773</v>
+        <v>1.004872558170573</v>
+      </c>
+      <c r="N9">
+        <v>1.010457275539074</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -677,28 +701,31 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9674462087309241</v>
+        <v>0.970075439578365</v>
       </c>
       <c r="D10">
-        <v>0.993262322020406</v>
+        <v>0.9953886855018111</v>
       </c>
       <c r="E10">
-        <v>0.9788368306308963</v>
+        <v>0.9810880630524972</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033027038118809</v>
+        <v>1.034212561520935</v>
       </c>
       <c r="J10">
-        <v>0.9970137198945384</v>
+        <v>0.9995287800085674</v>
       </c>
       <c r="K10">
-        <v>1.007754302333693</v>
+        <v>1.009841700805177</v>
       </c>
       <c r="L10">
-        <v>0.993599002981958</v>
+        <v>0.9958073852652917</v>
+      </c>
+      <c r="N10">
+        <v>1.000948225523733</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -709,28 +736,31 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9616271119989278</v>
+        <v>0.9642773677828913</v>
       </c>
       <c r="D11">
-        <v>0.9888017715385694</v>
+        <v>0.9909418659061503</v>
       </c>
       <c r="E11">
-        <v>0.974043830841835</v>
+        <v>0.9763101241192237</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030891875313439</v>
+        <v>1.03208391835535</v>
       </c>
       <c r="J11">
-        <v>0.9926882116697134</v>
+        <v>0.9952156458904394</v>
       </c>
       <c r="K11">
-        <v>1.00393800569477</v>
+        <v>1.006036651240787</v>
       </c>
       <c r="L11">
-        <v>0.9894724242717966</v>
+        <v>0.9916930656074004</v>
+      </c>
+      <c r="N11">
+        <v>0.996628966260434</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -741,28 +771,31 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9594212673929802</v>
+        <v>0.9620798039010833</v>
       </c>
       <c r="D12">
-        <v>0.9871122161819026</v>
+        <v>0.9892577243903746</v>
       </c>
       <c r="E12">
-        <v>0.9722289684438939</v>
+        <v>0.9745011979031292</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030080038328182</v>
+        <v>1.031274667534179</v>
       </c>
       <c r="J12">
-        <v>0.9910481250286237</v>
+        <v>0.9935804712192713</v>
       </c>
       <c r="K12">
-        <v>1.002490562234324</v>
+        <v>1.00459366440967</v>
       </c>
       <c r="L12">
-        <v>0.9879082849565328</v>
+        <v>0.99013378074716</v>
+      </c>
+      <c r="N12">
+        <v>0.9949914694536756</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -773,28 +806,31 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9598965066030249</v>
+        <v>0.9625532443530427</v>
       </c>
       <c r="D13">
-        <v>0.9874761604263864</v>
+        <v>0.9896204923785843</v>
       </c>
       <c r="E13">
-        <v>0.9726198778784975</v>
+        <v>0.974890817679873</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030255053817116</v>
+        <v>1.031449120436053</v>
       </c>
       <c r="J13">
-        <v>0.9914014907585915</v>
+        <v>0.9939327682292918</v>
       </c>
       <c r="K13">
-        <v>1.002802440675433</v>
+        <v>1.004904573567642</v>
       </c>
       <c r="L13">
-        <v>0.9882452636361121</v>
+        <v>0.9904697037572812</v>
+      </c>
+      <c r="N13">
+        <v>0.9953442667658593</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -805,28 +841,31 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.961445706419204</v>
+        <v>0.9640966366540642</v>
       </c>
       <c r="D14">
-        <v>0.9886627970232543</v>
+        <v>0.9908033322263691</v>
       </c>
       <c r="E14">
-        <v>0.9738945369818782</v>
+        <v>0.9761613136667893</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03082516008623</v>
+        <v>1.032017413402447</v>
       </c>
       <c r="J14">
-        <v>0.99255334086158</v>
+        <v>0.9950811743825184</v>
       </c>
       <c r="K14">
-        <v>1.003818985189814</v>
+        <v>1.005917993183162</v>
       </c>
       <c r="L14">
-        <v>0.9893437882613917</v>
+        <v>0.9915648244603446</v>
+      </c>
+      <c r="N14">
+        <v>0.9964943037875476</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -837,28 +876,31 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9623942110650678</v>
+        <v>0.96504162770749</v>
       </c>
       <c r="D15">
-        <v>0.9893894992863225</v>
+        <v>0.9915277381605244</v>
       </c>
       <c r="E15">
-        <v>0.9746752241962761</v>
+        <v>0.976939482713415</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03117389087918</v>
+        <v>1.032365049490217</v>
       </c>
       <c r="J15">
-        <v>0.9932585158024778</v>
+        <v>0.9957842706831547</v>
       </c>
       <c r="K15">
-        <v>1.004441269186035</v>
+        <v>1.006538390063738</v>
       </c>
       <c r="L15">
-        <v>0.9900163856584199</v>
+        <v>0.992235365839918</v>
+      </c>
+      <c r="N15">
+        <v>0.997198398565577</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -869,31 +911,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9678264113991285</v>
+        <v>0.9704543090805856</v>
       </c>
       <c r="D16">
-        <v>0.9935539281111078</v>
+        <v>0.9956794217646094</v>
       </c>
       <c r="E16">
-        <v>0.9791502582257336</v>
+        <v>0.9814005362810556</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033166197833173</v>
+        <v>1.034351310305981</v>
       </c>
       <c r="J16">
-        <v>0.9972962711265471</v>
+        <v>0.9998105516825646</v>
       </c>
       <c r="K16">
-        <v>1.008003528772522</v>
+        <v>1.010090217670522</v>
       </c>
       <c r="L16">
-        <v>0.993868630204241</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.9960762386368223</v>
+      </c>
+      <c r="N16">
+        <v>1.001230397345827</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -901,31 +946,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9711592698443284</v>
+        <v>0.9737756890904595</v>
       </c>
       <c r="D17">
-        <v>0.9961109821868566</v>
+        <v>0.9982289914736984</v>
       </c>
       <c r="E17">
-        <v>0.9818991578760163</v>
+        <v>0.9841412225112547</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034384147361221</v>
+        <v>1.035565735309959</v>
       </c>
       <c r="J17">
-        <v>0.9997727192931316</v>
+        <v>1.002280315107891</v>
       </c>
       <c r="K17">
-        <v>1.010187545317303</v>
+        <v>1.012268144304012</v>
       </c>
       <c r="L17">
-        <v>0.9962321826917716</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.9984331471397984</v>
+      </c>
+      <c r="N17">
+        <v>1.003703668118503</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -933,31 +981,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9730776297372035</v>
+        <v>0.9756876093468403</v>
       </c>
       <c r="D18">
-        <v>0.9975834546754903</v>
+        <v>0.9996972691672795</v>
       </c>
       <c r="E18">
-        <v>0.9834825251389558</v>
+        <v>0.9857199849474603</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035083564061619</v>
+        <v>1.036263185985227</v>
       </c>
       <c r="J18">
-        <v>1.001197786035295</v>
+        <v>1.003701653994068</v>
       </c>
       <c r="K18">
-        <v>1.011444031621932</v>
+        <v>1.013521230186497</v>
       </c>
       <c r="L18">
-        <v>0.9975925957486153</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.9997898483558729</v>
+      </c>
+      <c r="N18">
+        <v>1.005127025468929</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -965,31 +1016,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9737275042902191</v>
+        <v>0.9763353297143561</v>
       </c>
       <c r="D19">
-        <v>0.9980823831892319</v>
+        <v>1.000194795157269</v>
       </c>
       <c r="E19">
-        <v>0.9840191017874637</v>
+        <v>0.9862550217292487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035320223691297</v>
+        <v>1.036499189877194</v>
       </c>
       <c r="J19">
-        <v>1.001680486407217</v>
+        <v>1.004183111117363</v>
       </c>
       <c r="K19">
-        <v>1.011869577845266</v>
+        <v>1.013945641649551</v>
       </c>
       <c r="L19">
-        <v>0.9980534489638713</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.000249462532204</v>
+      </c>
+      <c r="N19">
+        <v>1.005609166316562</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -997,31 +1051,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9708043648307713</v>
+        <v>0.9734219887413277</v>
       </c>
       <c r="D20">
-        <v>0.9958386200986502</v>
+        <v>0.9979574144483443</v>
       </c>
       <c r="E20">
-        <v>0.9816063181275414</v>
+        <v>0.9838492444452283</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034254619839514</v>
+        <v>1.035436576505484</v>
       </c>
       <c r="J20">
-        <v>0.9995090462685924</v>
+        <v>1.002017341291916</v>
       </c>
       <c r="K20">
-        <v>1.009955039168484</v>
+        <v>1.012036275600282</v>
       </c>
       <c r="L20">
-        <v>0.9959804973785265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.9981821574804163</v>
+      </c>
+      <c r="N20">
+        <v>1.003440320849546</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1029,31 +1086,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9609907653952675</v>
+        <v>0.9636433922015664</v>
       </c>
       <c r="D21">
-        <v>0.9883142892479222</v>
+        <v>0.9904559334570952</v>
       </c>
       <c r="E21">
-        <v>0.973520161024607</v>
+        <v>0.9757881537821155</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030657808078029</v>
+        <v>1.031850590626748</v>
       </c>
       <c r="J21">
-        <v>0.9922150966271034</v>
+        <v>0.9947439351948538</v>
       </c>
       <c r="K21">
-        <v>1.00352048534221</v>
+        <v>1.005620405494428</v>
       </c>
       <c r="L21">
-        <v>0.9890211887796955</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.9912432186683557</v>
+      </c>
+      <c r="N21">
+        <v>0.9961565856815546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1061,31 +1121,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9545614369796945</v>
+        <v>0.9572388400838655</v>
       </c>
       <c r="D22">
-        <v>0.983392537521548</v>
+        <v>0.9855503904719224</v>
       </c>
       <c r="E22">
-        <v>0.9682344956951088</v>
+        <v>0.9705202574625781</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028287038138121</v>
+        <v>1.029487593403736</v>
       </c>
       <c r="J22">
-        <v>0.9874341422503701</v>
+        <v>0.9899777524477846</v>
       </c>
       <c r="K22">
-        <v>0.999300330107198</v>
+        <v>1.001413636425514</v>
       </c>
       <c r="L22">
-        <v>0.9844626370700619</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.9866992422167151</v>
+      </c>
+      <c r="N22">
+        <v>0.9913836344082958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1093,31 +1156,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9579957901223044</v>
+        <v>0.9606597709174765</v>
       </c>
       <c r="D23">
-        <v>0.986020777716255</v>
+        <v>0.9881698468818488</v>
       </c>
       <c r="E23">
-        <v>0.9710567499149719</v>
+        <v>0.973332883363581</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029554729992564</v>
+        <v>1.030751064626438</v>
       </c>
       <c r="J23">
-        <v>0.9899881565730653</v>
+        <v>0.9925237431270233</v>
       </c>
       <c r="K23">
-        <v>1.00155498083726</v>
+        <v>1.003661020667277</v>
       </c>
       <c r="L23">
-        <v>0.9868975494549125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.9891262442705011</v>
+      </c>
+      <c r="N23">
+        <v>0.9939332406863283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1125,31 +1191,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9709648100699467</v>
+        <v>0.9735818888596142</v>
       </c>
       <c r="D24">
-        <v>0.9959617473555</v>
+        <v>0.9980801864446802</v>
       </c>
       <c r="E24">
-        <v>0.9817387014480323</v>
+        <v>0.9839812378374007</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034313181613688</v>
+        <v>1.035494971396418</v>
       </c>
       <c r="J24">
-        <v>0.999628248510065</v>
+        <v>1.002136227065172</v>
       </c>
       <c r="K24">
-        <v>1.010060152317316</v>
+        <v>1.012141100249063</v>
       </c>
       <c r="L24">
-        <v>0.996094279204696</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.9982956244683824</v>
+      </c>
+      <c r="N24">
+        <v>1.003559375454236</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1157,28 +1226,31 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9850187401050302</v>
+        <v>0.9875912828227202</v>
       </c>
       <c r="D25">
-        <v>1.006758795175357</v>
+        <v>1.008848298943325</v>
       </c>
       <c r="E25">
-        <v>0.9933567388966369</v>
+        <v>0.9955674851546136</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039407535707808</v>
+        <v>1.04057592351315</v>
       </c>
       <c r="J25">
-        <v>1.01006102021454</v>
+        <v>1.01254358967638</v>
       </c>
       <c r="K25">
-        <v>1.019253087842934</v>
+        <v>1.021310791946727</v>
       </c>
       <c r="L25">
-        <v>1.006059065828326</v>
+        <v>1.008235002133226</v>
+      </c>
+      <c r="N25">
+        <v>1.013981517714094</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
@@ -421,31 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9980902176840365</v>
+        <v>0.9794366744114619</v>
       </c>
       <c r="D2">
-        <v>1.016930662447291</v>
+        <v>1.001672284918431</v>
       </c>
       <c r="E2">
-        <v>1.004278377467058</v>
+        <v>0.9862224955655706</v>
+      </c>
+      <c r="F2">
+        <v>0.9598140415612054</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044330637086859</v>
+        <v>1.035131466635552</v>
       </c>
       <c r="J2">
-        <v>1.020328200444352</v>
+        <v>1.002250322128724</v>
       </c>
       <c r="K2">
-        <v>1.028159059608113</v>
+        <v>1.013108371217728</v>
       </c>
       <c r="L2">
-        <v>1.015678427766972</v>
+        <v>0.9978771695751195</v>
+      </c>
+      <c r="M2">
+        <v>0.9718631494919368</v>
       </c>
       <c r="N2">
-        <v>1.021777183522263</v>
+        <v>1.003673632545865</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,31 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005371608242275</v>
+        <v>0.9890486118577203</v>
       </c>
       <c r="D3">
-        <v>1.02254054130895</v>
+        <v>1.009238174426453</v>
       </c>
       <c r="E3">
-        <v>1.010333532191241</v>
+        <v>0.9945532786221429</v>
+      </c>
+      <c r="F3">
+        <v>0.9742685744915885</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046902459733956</v>
+        <v>1.039048100810075</v>
       </c>
       <c r="J3">
-        <v>1.025716901272578</v>
+        <v>1.009842341213751</v>
       </c>
       <c r="K3">
-        <v>1.032892911629532</v>
+        <v>1.019754200087019</v>
       </c>
       <c r="L3">
-        <v>1.020835879105778</v>
+        <v>1.005256328942401</v>
+      </c>
+      <c r="M3">
+        <v>0.9852416363848959</v>
       </c>
       <c r="N3">
-        <v>1.027173536923758</v>
+        <v>1.01127643316881</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -491,31 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009939145934595</v>
+        <v>0.9950055165193821</v>
       </c>
       <c r="D4">
-        <v>1.026060821967199</v>
+        <v>1.013926910102591</v>
       </c>
       <c r="E4">
-        <v>1.014137611639709</v>
+        <v>0.9997164344589373</v>
+      </c>
+      <c r="F4">
+        <v>0.9831215553411141</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048500363164773</v>
+        <v>1.041449457477647</v>
       </c>
       <c r="J4">
-        <v>1.029091979718285</v>
+        <v>1.014537850346021</v>
       </c>
       <c r="K4">
-        <v>1.035854570109027</v>
+        <v>1.023860105927568</v>
       </c>
       <c r="L4">
-        <v>1.024068350799486</v>
+        <v>1.009818283072128</v>
+      </c>
+      <c r="M4">
+        <v>0.9934280492715789</v>
       </c>
       <c r="N4">
-        <v>1.030553408367985</v>
+        <v>1.015978610462631</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -526,31 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011826762388521</v>
+        <v>0.9974519781265809</v>
       </c>
       <c r="D5">
-        <v>1.027515834176724</v>
+        <v>1.015852432405604</v>
       </c>
       <c r="E5">
-        <v>1.015711006426471</v>
+        <v>1.001836862400344</v>
+      </c>
+      <c r="F5">
+        <v>0.9867358377299205</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049156966694335</v>
+        <v>1.042429635776105</v>
       </c>
       <c r="J5">
-        <v>1.03048547810356</v>
+        <v>1.016463959283858</v>
       </c>
       <c r="K5">
-        <v>1.037076565125783</v>
+        <v>1.025543324694079</v>
       </c>
       <c r="L5">
-        <v>1.025403499607731</v>
+        <v>1.011689123503509</v>
+      </c>
+      <c r="M5">
+        <v>0.9967683362711942</v>
       </c>
       <c r="N5">
-        <v>1.031948885680804</v>
+        <v>1.017907454696086</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -561,31 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.012141843472643</v>
+        <v>0.9978594937000932</v>
       </c>
       <c r="D6">
-        <v>1.027758713236484</v>
+        <v>1.016173164619406</v>
       </c>
       <c r="E6">
-        <v>1.015973711115269</v>
+        <v>1.002190063916119</v>
+      </c>
+      <c r="F6">
+        <v>0.9873367044222175</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049266343952515</v>
+        <v>1.042592556303366</v>
       </c>
       <c r="J6">
-        <v>1.030718001872546</v>
+        <v>1.016784661845444</v>
       </c>
       <c r="K6">
-        <v>1.037280422823614</v>
+        <v>1.025823525037262</v>
       </c>
       <c r="L6">
-        <v>1.025626317992976</v>
+        <v>1.012000594542043</v>
+      </c>
+      <c r="M6">
+        <v>0.9973235404717561</v>
       </c>
       <c r="N6">
-        <v>1.032181739660212</v>
+        <v>1.018228612692096</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -596,31 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009964493967584</v>
+        <v>0.9950384272733366</v>
       </c>
       <c r="D7">
-        <v>1.026080360108368</v>
+        <v>1.013952813516677</v>
       </c>
       <c r="E7">
-        <v>1.014158735117773</v>
+        <v>0.9997449595924399</v>
+      </c>
+      <c r="F7">
+        <v>0.9831702573858743</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048509195396422</v>
+        <v>1.041462666988944</v>
       </c>
       <c r="J7">
-        <v>1.029110697723898</v>
+        <v>1.01456377027932</v>
       </c>
       <c r="K7">
-        <v>1.035870987661295</v>
+        <v>1.023882761330712</v>
       </c>
       <c r="L7">
-        <v>1.024086282939727</v>
+        <v>1.009843461201672</v>
+      </c>
+      <c r="M7">
+        <v>0.9934730667478585</v>
       </c>
       <c r="N7">
-        <v>1.030572152955313</v>
+        <v>1.016004567205207</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -631,31 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.000582011802171</v>
+        <v>0.9827427360485428</v>
       </c>
       <c r="D8">
-        <v>1.018850104721343</v>
+        <v>1.004274587139976</v>
       </c>
       <c r="E8">
-        <v>1.00634926667707</v>
+        <v>0.9890877821695138</v>
+      </c>
+      <c r="F8">
+        <v>0.9648106096504092</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045213953619732</v>
+        <v>1.036484258636996</v>
       </c>
       <c r="J8">
-        <v>1.022173344595511</v>
+        <v>1.004863659458469</v>
       </c>
       <c r="K8">
-        <v>1.029780652460826</v>
+        <v>1.01539696608882</v>
       </c>
       <c r="L8">
-        <v>1.01744391452628</v>
+        <v>1.00041762378453</v>
+      </c>
+      <c r="M8">
+        <v>0.9764893277034591</v>
       </c>
       <c r="N8">
-        <v>1.023624947989758</v>
+        <v>1.006290681114373</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -666,31 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.982851135812485</v>
+        <v>0.9587914992788593</v>
       </c>
       <c r="D9">
-        <v>1.005202440429484</v>
+        <v>0.9854241397646084</v>
       </c>
       <c r="E9">
-        <v>0.9916424137935697</v>
+        <v>0.9683359795562274</v>
+      </c>
+      <c r="F9">
+        <v>0.9279354614353283</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038865007761269</v>
+        <v>1.026557283315789</v>
       </c>
       <c r="J9">
-        <v>1.009024345232134</v>
+        <v>0.9858883331494305</v>
       </c>
       <c r="K9">
-        <v>1.018211671830838</v>
+        <v>0.9987582113873932</v>
       </c>
       <c r="L9">
-        <v>1.004872558170573</v>
+        <v>0.9819645606976866</v>
+      </c>
+      <c r="M9">
+        <v>0.9423169921532419</v>
       </c>
       <c r="N9">
-        <v>1.010457275539074</v>
+        <v>0.9872884076654752</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -701,31 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.970075439578365</v>
+        <v>0.9408066654513049</v>
       </c>
       <c r="D10">
-        <v>0.9953886855018111</v>
+        <v>0.9712747254418982</v>
       </c>
       <c r="E10">
-        <v>0.9810880630524972</v>
+        <v>0.9527688009879002</v>
+      </c>
+      <c r="F10">
+        <v>0.8989992262664809</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034212561520935</v>
+        <v>1.01891768621812</v>
       </c>
       <c r="J10">
-        <v>0.9995287800085674</v>
+        <v>0.9715829362161633</v>
       </c>
       <c r="K10">
-        <v>1.009841700805177</v>
+        <v>0.9861827428524944</v>
       </c>
       <c r="L10">
-        <v>0.9958073852652917</v>
+        <v>0.9680466130568002</v>
+      </c>
+      <c r="M10">
+        <v>0.9154676022189571</v>
       </c>
       <c r="N10">
-        <v>1.000948225523733</v>
+        <v>0.9729626954277109</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -736,31 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9642773677828913</v>
+        <v>0.9323903243901217</v>
       </c>
       <c r="D11">
-        <v>0.9909418659061503</v>
+        <v>0.9646545870530751</v>
       </c>
       <c r="E11">
-        <v>0.9763101241192237</v>
+        <v>0.945490295888424</v>
+      </c>
+      <c r="F11">
+        <v>0.8849844692872637</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03208391835535</v>
+        <v>1.015287967433731</v>
       </c>
       <c r="J11">
-        <v>0.9952156458904394</v>
+        <v>0.9648737656580847</v>
       </c>
       <c r="K11">
-        <v>1.006036651240787</v>
+        <v>0.9802753349297656</v>
       </c>
       <c r="L11">
-        <v>0.9916930656074004</v>
+        <v>0.9615189927369374</v>
+      </c>
+      <c r="M11">
+        <v>0.9024586574920413</v>
       </c>
       <c r="N11">
-        <v>0.996628966260434</v>
+        <v>0.9662439970778871</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -771,31 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9620798039010833</v>
+        <v>0.9291520037964264</v>
       </c>
       <c r="D12">
-        <v>0.9892577243903746</v>
+        <v>0.96210747249968</v>
       </c>
       <c r="E12">
-        <v>0.9745011979031292</v>
+        <v>0.9426910393441855</v>
+      </c>
+      <c r="F12">
+        <v>0.8794973650068484</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031274667534179</v>
+        <v>1.013881739753729</v>
       </c>
       <c r="J12">
-        <v>0.9935804712192713</v>
+        <v>0.9622898991494014</v>
       </c>
       <c r="K12">
-        <v>1.00459366440967</v>
+        <v>0.977998512646344</v>
       </c>
       <c r="L12">
-        <v>0.99013378074716</v>
+        <v>0.9590052003407976</v>
+      </c>
+      <c r="M12">
+        <v>0.8973650543191504</v>
       </c>
       <c r="N12">
-        <v>0.9949914694536756</v>
+        <v>0.9636564611823877</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -806,31 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9625532443530427</v>
+        <v>0.9298520530019985</v>
       </c>
       <c r="D13">
-        <v>0.9896204923785843</v>
+        <v>0.9626580988008276</v>
       </c>
       <c r="E13">
-        <v>0.974890817679873</v>
+        <v>0.9432961110136493</v>
+      </c>
+      <c r="F13">
+        <v>0.8806883034699322</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031449120436053</v>
+        <v>1.014186197234155</v>
       </c>
       <c r="J13">
-        <v>0.9939327682292918</v>
+        <v>0.9628485837138652</v>
       </c>
       <c r="K13">
-        <v>1.004904573567642</v>
+        <v>0.9784908924925472</v>
       </c>
       <c r="L13">
-        <v>0.9904697037572812</v>
+        <v>0.9595487227702307</v>
+      </c>
+      <c r="M13">
+        <v>0.898470590257239</v>
       </c>
       <c r="N13">
-        <v>0.9953442667658593</v>
+        <v>0.9642159391430153</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -841,31 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9640966366540642</v>
+        <v>0.9321250529872531</v>
       </c>
       <c r="D14">
-        <v>0.9908033322263691</v>
+        <v>0.9644459361848925</v>
       </c>
       <c r="E14">
-        <v>0.9761613136667893</v>
+        <v>0.9452609636609527</v>
+      </c>
+      <c r="F14">
+        <v>0.8845370672736993</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032017413402447</v>
+        <v>1.015172979234674</v>
       </c>
       <c r="J14">
-        <v>0.9950811743825184</v>
+        <v>0.9646621549011742</v>
       </c>
       <c r="K14">
-        <v>1.005917993183162</v>
+        <v>0.9800889073588529</v>
       </c>
       <c r="L14">
-        <v>0.9915648244603446</v>
+        <v>0.9613131164157267</v>
+      </c>
+      <c r="M14">
+        <v>0.9020433431505103</v>
       </c>
       <c r="N14">
-        <v>0.9964943037875476</v>
+        <v>0.9660320858094295</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -876,31 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.96504162770749</v>
+        <v>0.933510045038373</v>
       </c>
       <c r="D15">
-        <v>0.9915277381605244</v>
+        <v>0.9655353127751634</v>
       </c>
       <c r="E15">
-        <v>0.976939482713415</v>
+        <v>0.9464583687860658</v>
+      </c>
+      <c r="F15">
+        <v>0.8868689831236125</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032365049490217</v>
+        <v>1.015772938021911</v>
       </c>
       <c r="J15">
-        <v>0.9957842706831547</v>
+        <v>0.9657668840424951</v>
       </c>
       <c r="K15">
-        <v>1.006538390063738</v>
+        <v>0.9810620937743383</v>
       </c>
       <c r="L15">
-        <v>0.992235365839918</v>
+        <v>0.9623879160147637</v>
+      </c>
+      <c r="M15">
+        <v>0.9042080051397589</v>
       </c>
       <c r="N15">
-        <v>0.997198398565577</v>
+        <v>0.9671383837928452</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -911,31 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9704543090805856</v>
+        <v>0.9413505943011785</v>
       </c>
       <c r="D16">
-        <v>0.9956794217646094</v>
+        <v>0.9717025911565043</v>
       </c>
       <c r="E16">
-        <v>0.9814005362810556</v>
+        <v>0.9532393488245893</v>
+      </c>
+      <c r="F16">
+        <v>0.8998935778995787</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034351310305981</v>
+        <v>1.019151048368817</v>
       </c>
       <c r="J16">
-        <v>0.9998105516825646</v>
+        <v>0.9720162212638076</v>
       </c>
       <c r="K16">
-        <v>1.010090217670522</v>
+        <v>0.9865640329643713</v>
       </c>
       <c r="L16">
-        <v>0.9960762386368223</v>
+        <v>0.9684681833075074</v>
+      </c>
+      <c r="M16">
+        <v>0.9162977013166519</v>
       </c>
       <c r="N16">
-        <v>1.001230397345827</v>
+        <v>0.9733965957898213</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -946,31 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9737756890904595</v>
+        <v>0.9460895186321535</v>
       </c>
       <c r="D17">
-        <v>0.9982289914736984</v>
+        <v>0.9754304793582527</v>
       </c>
       <c r="E17">
-        <v>0.9841412225112547</v>
+        <v>0.9573396917978482</v>
+      </c>
+      <c r="F17">
+        <v>0.9076313715236992</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035565735309959</v>
+        <v>1.021178043088917</v>
       </c>
       <c r="J17">
-        <v>1.002280315107891</v>
+        <v>0.9757895363723696</v>
       </c>
       <c r="K17">
-        <v>1.012268144304012</v>
+        <v>0.9898834664479742</v>
       </c>
       <c r="L17">
-        <v>0.9984331471397984</v>
+        <v>0.9721394740050587</v>
+      </c>
+      <c r="M17">
+        <v>0.9234790903896457</v>
       </c>
       <c r="N17">
-        <v>1.003703668118503</v>
+        <v>0.9771752694386426</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -981,31 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9756876093468403</v>
+        <v>0.9487944022011945</v>
       </c>
       <c r="D18">
-        <v>0.9996972691672795</v>
+        <v>0.9775584198832884</v>
       </c>
       <c r="E18">
-        <v>0.9857199849474603</v>
+        <v>0.959680658182509</v>
+      </c>
+      <c r="F18">
+        <v>0.9120062440130632</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036263185985227</v>
+        <v>1.022330099496978</v>
       </c>
       <c r="J18">
-        <v>1.003701653994068</v>
+        <v>0.9779419350434542</v>
       </c>
       <c r="K18">
-        <v>1.013521230186497</v>
+        <v>0.991776104157859</v>
       </c>
       <c r="L18">
-        <v>0.9997898483558729</v>
+        <v>0.974233646327907</v>
+      </c>
+      <c r="M18">
+        <v>0.9275389012114289</v>
       </c>
       <c r="N18">
-        <v>1.005127025468929</v>
+        <v>0.979330724762724</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1016,31 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9763353297143561</v>
+        <v>0.9497071019539742</v>
       </c>
       <c r="D19">
-        <v>1.000194795157269</v>
+        <v>0.9782764679118452</v>
       </c>
       <c r="E19">
-        <v>0.9862550217292487</v>
+        <v>0.960470651970491</v>
+      </c>
+      <c r="F19">
+        <v>0.913475904161814</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036499189877194</v>
+        <v>1.022718032820603</v>
       </c>
       <c r="J19">
-        <v>1.004183111117363</v>
+        <v>0.9786679892297585</v>
       </c>
       <c r="K19">
-        <v>1.013945641649551</v>
+        <v>0.9924143963610181</v>
       </c>
       <c r="L19">
-        <v>1.000249462532204</v>
+        <v>0.9749400504178348</v>
+      </c>
+      <c r="M19">
+        <v>0.9289026314544422</v>
       </c>
       <c r="N19">
-        <v>1.005609166316562</v>
+        <v>0.9800578100292521</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1051,31 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9734219887413277</v>
+        <v>0.945587316435525</v>
       </c>
       <c r="D20">
-        <v>0.9979574144483443</v>
+        <v>0.9750354067098759</v>
       </c>
       <c r="E20">
-        <v>0.9838492444452283</v>
+        <v>0.9569051009731491</v>
+      </c>
+      <c r="F20">
+        <v>0.9068158508874854</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035436576505484</v>
+        <v>1.020963754863412</v>
       </c>
       <c r="J20">
-        <v>1.002017341291916</v>
+        <v>0.975389803699846</v>
       </c>
       <c r="K20">
-        <v>1.012036275600282</v>
+        <v>0.9895319073134919</v>
       </c>
       <c r="L20">
-        <v>0.9981821574804163</v>
+        <v>0.9717505514644553</v>
+      </c>
+      <c r="M20">
+        <v>0.9227222590758182</v>
       </c>
       <c r="N20">
-        <v>1.003440320849546</v>
+        <v>0.976774969099874</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1086,31 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9636433922015664</v>
+        <v>0.9314589758140817</v>
       </c>
       <c r="D21">
-        <v>0.9904559334570952</v>
+        <v>0.9639220297887727</v>
       </c>
       <c r="E21">
-        <v>0.9757881537821155</v>
+        <v>0.9446851484614519</v>
+      </c>
+      <c r="F21">
+        <v>0.8834120588656008</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031850590626748</v>
+        <v>1.014884091953935</v>
       </c>
       <c r="J21">
-        <v>0.9947439351948538</v>
+        <v>0.9641307762537142</v>
       </c>
       <c r="K21">
-        <v>1.005620405494428</v>
+        <v>0.9796207375152192</v>
       </c>
       <c r="L21">
-        <v>0.9912432186683557</v>
+        <v>0.96079614080864</v>
+      </c>
+      <c r="M21">
+        <v>0.9009990174321234</v>
       </c>
       <c r="N21">
-        <v>0.9961565856815546</v>
+        <v>0.9654999525433402</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1121,31 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9572388400838655</v>
+        <v>0.9219138432029074</v>
       </c>
       <c r="D22">
-        <v>0.9855503904719224</v>
+        <v>0.9564141262130315</v>
       </c>
       <c r="E22">
-        <v>0.9705202574625781</v>
+        <v>0.9364369853545047</v>
+      </c>
+      <c r="F22">
+        <v>0.8670195140223412</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029487593403736</v>
+        <v>1.010718384124196</v>
       </c>
       <c r="J22">
-        <v>0.9899777524477846</v>
+        <v>0.9565097032686706</v>
       </c>
       <c r="K22">
-        <v>1.001413636425514</v>
+        <v>0.9729014653672965</v>
       </c>
       <c r="L22">
-        <v>0.9866992422167151</v>
+        <v>0.9533823310161602</v>
+      </c>
+      <c r="M22">
+        <v>0.8857821761875182</v>
       </c>
       <c r="N22">
-        <v>0.9913836344082958</v>
+        <v>0.9578680567605087</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1156,31 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9606597709174765</v>
+        <v>0.9270441642403534</v>
       </c>
       <c r="D23">
-        <v>0.9881698468818488</v>
+        <v>0.9604495369609303</v>
       </c>
       <c r="E23">
-        <v>0.973332883363581</v>
+        <v>0.9408693871049023</v>
+      </c>
+      <c r="F23">
+        <v>0.8758950999345348</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030751064626438</v>
+        <v>1.012963456436951</v>
       </c>
       <c r="J23">
-        <v>0.9925237431270233</v>
+        <v>0.9606073296742557</v>
       </c>
       <c r="K23">
-        <v>1.003661020667277</v>
+        <v>0.9765153436187409</v>
       </c>
       <c r="L23">
-        <v>0.9891262442705011</v>
+        <v>0.9573683354815209</v>
+      </c>
+      <c r="M23">
+        <v>0.894021111093574</v>
       </c>
       <c r="N23">
-        <v>0.9939332406863283</v>
+        <v>0.9619715022655939</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1191,31 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9735818888596142</v>
+        <v>0.9458144218245582</v>
       </c>
       <c r="D24">
-        <v>0.9980801864446802</v>
+        <v>0.9752140656483234</v>
       </c>
       <c r="E24">
-        <v>0.9839812378374007</v>
+        <v>0.9571016294496161</v>
+      </c>
+      <c r="F24">
+        <v>0.9071847733155551</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035494971396418</v>
+        <v>1.02106067529802</v>
       </c>
       <c r="J24">
-        <v>1.002136227065172</v>
+        <v>0.9755705745688596</v>
       </c>
       <c r="K24">
-        <v>1.012141100249063</v>
+        <v>0.9896908953390749</v>
       </c>
       <c r="L24">
-        <v>0.9982956244683824</v>
+        <v>0.9719264337761128</v>
+      </c>
+      <c r="M24">
+        <v>0.9230646333484246</v>
       </c>
       <c r="N24">
-        <v>1.003559375454236</v>
+        <v>0.9769559966842563</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1226,31 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9875912828227202</v>
+        <v>0.9652974868685509</v>
       </c>
       <c r="D25">
-        <v>1.008848298943325</v>
+        <v>0.9905438901636747</v>
       </c>
       <c r="E25">
-        <v>0.9955674851546136</v>
+        <v>0.9739711316254446</v>
+      </c>
+      <c r="F25">
+        <v>0.9381177539515952</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04057592351315</v>
+        <v>1.029282214256722</v>
       </c>
       <c r="J25">
-        <v>1.01254358967638</v>
+        <v>0.9910519538798499</v>
       </c>
       <c r="K25">
-        <v>1.021310791946727</v>
+        <v>1.003290795423357</v>
       </c>
       <c r="L25">
-        <v>1.008235002133226</v>
+        <v>0.9869874144252893</v>
+      </c>
+      <c r="M25">
+        <v>0.9517592105100702</v>
       </c>
       <c r="N25">
-        <v>1.013981517714094</v>
+        <v>0.9924593613296073</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9794366744114619</v>
+        <v>0.9927617007729194</v>
       </c>
       <c r="D2">
-        <v>1.001672284918431</v>
+        <v>1.015045720629009</v>
       </c>
       <c r="E2">
-        <v>0.9862224955655706</v>
+        <v>1.000147637506901</v>
       </c>
       <c r="F2">
-        <v>0.9598140415612054</v>
+        <v>1.015519672627023</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035131466635552</v>
+        <v>1.040869841861966</v>
       </c>
       <c r="J2">
-        <v>1.002250322128724</v>
+        <v>1.015161084744078</v>
       </c>
       <c r="K2">
-        <v>1.013108371217728</v>
+        <v>1.026299349842881</v>
       </c>
       <c r="L2">
-        <v>0.9978771695751195</v>
+        <v>1.011604915887204</v>
       </c>
       <c r="M2">
-        <v>0.9718631494919368</v>
+        <v>1.026766946388797</v>
       </c>
       <c r="N2">
-        <v>1.003673632545865</v>
+        <v>1.016602729925012</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9890486118577203</v>
+        <v>0.9974878929811454</v>
       </c>
       <c r="D3">
-        <v>1.009238174426453</v>
+        <v>1.018694141171973</v>
       </c>
       <c r="E3">
-        <v>0.9945532786221429</v>
+        <v>1.003930741447544</v>
       </c>
       <c r="F3">
-        <v>0.9742685744915885</v>
+        <v>1.020103380586615</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039048100810075</v>
+        <v>1.041944555360566</v>
       </c>
       <c r="J3">
-        <v>1.009842341213751</v>
+        <v>1.018047275624803</v>
       </c>
       <c r="K3">
-        <v>1.019754200087019</v>
+        <v>1.029093286557792</v>
       </c>
       <c r="L3">
-        <v>1.005256328942401</v>
+        <v>1.014513573554451</v>
       </c>
       <c r="M3">
-        <v>0.9852416363848959</v>
+        <v>1.030485337699379</v>
       </c>
       <c r="N3">
-        <v>1.01127643316881</v>
+        <v>1.019493019527845</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9950055165193821</v>
+        <v>1.000482391902396</v>
       </c>
       <c r="D4">
-        <v>1.013926910102591</v>
+        <v>1.02100767131942</v>
       </c>
       <c r="E4">
-        <v>0.9997164344589373</v>
+        <v>1.006333998053661</v>
       </c>
       <c r="F4">
-        <v>0.9831215553411141</v>
+        <v>1.023012335275403</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041449457477647</v>
+        <v>1.042614410812988</v>
       </c>
       <c r="J4">
-        <v>1.014537850346021</v>
+        <v>1.019873766090084</v>
       </c>
       <c r="K4">
-        <v>1.023860105927568</v>
+        <v>1.030858995130917</v>
       </c>
       <c r="L4">
-        <v>1.009818283072128</v>
+        <v>1.0163565737055</v>
       </c>
       <c r="M4">
-        <v>0.9934280492715789</v>
+        <v>1.032840733950838</v>
       </c>
       <c r="N4">
-        <v>1.015978610462631</v>
+        <v>1.021322103819088</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9974519781265809</v>
+        <v>1.001726605748278</v>
       </c>
       <c r="D5">
-        <v>1.015852432405604</v>
+        <v>1.021969337532815</v>
       </c>
       <c r="E5">
-        <v>1.001836862400344</v>
+        <v>1.007334011425934</v>
       </c>
       <c r="F5">
-        <v>0.9867358377299205</v>
+        <v>1.024222096464449</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042429635776105</v>
+        <v>1.042890032349606</v>
       </c>
       <c r="J5">
-        <v>1.016463959283858</v>
+        <v>1.020632109093345</v>
       </c>
       <c r="K5">
-        <v>1.025543324694079</v>
+        <v>1.031591510439722</v>
       </c>
       <c r="L5">
-        <v>1.011689123503509</v>
+        <v>1.017122319691423</v>
       </c>
       <c r="M5">
-        <v>0.9967683362711942</v>
+        <v>1.03381921548456</v>
       </c>
       <c r="N5">
-        <v>1.017907454696086</v>
+        <v>1.022081523756397</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9978594937000932</v>
+        <v>1.001934670222318</v>
       </c>
       <c r="D6">
-        <v>1.016173164619406</v>
+        <v>1.022130174242769</v>
       </c>
       <c r="E6">
-        <v>1.002190063916119</v>
+        <v>1.007501323770516</v>
       </c>
       <c r="F6">
-        <v>0.9873367044222175</v>
+        <v>1.024424462439979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042592556303366</v>
+        <v>1.042935963135222</v>
       </c>
       <c r="J6">
-        <v>1.016784661845444</v>
+        <v>1.02075888928756</v>
       </c>
       <c r="K6">
-        <v>1.025823525037262</v>
+        <v>1.031713937512677</v>
       </c>
       <c r="L6">
-        <v>1.012000594542043</v>
+        <v>1.017250369715837</v>
       </c>
       <c r="M6">
-        <v>0.9973235404717561</v>
+        <v>1.033982830387735</v>
       </c>
       <c r="N6">
-        <v>1.018228612692096</v>
+        <v>1.022208483993029</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9950384272733366</v>
+        <v>1.000499074075318</v>
       </c>
       <c r="D7">
-        <v>1.013952813516677</v>
+        <v>1.021020563670052</v>
       </c>
       <c r="E7">
-        <v>0.9997449595924399</v>
+        <v>1.00634740032882</v>
       </c>
       <c r="F7">
-        <v>0.9831702573858743</v>
+        <v>1.023028551261519</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041462666988944</v>
+        <v>1.042618117030336</v>
       </c>
       <c r="J7">
-        <v>1.01456377027932</v>
+        <v>1.019883936078463</v>
       </c>
       <c r="K7">
-        <v>1.023882761330712</v>
+        <v>1.030868821107622</v>
       </c>
       <c r="L7">
-        <v>1.009843461201672</v>
+        <v>1.016366840808859</v>
       </c>
       <c r="M7">
-        <v>0.9934730667478585</v>
+        <v>1.032853854034066</v>
       </c>
       <c r="N7">
-        <v>1.016004567205207</v>
+        <v>1.021332288250017</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9827427360485428</v>
+        <v>0.99437247287302</v>
       </c>
       <c r="D8">
-        <v>1.004274587139976</v>
+        <v>1.016288730673531</v>
       </c>
       <c r="E8">
-        <v>0.9890877821695138</v>
+        <v>1.001435636405474</v>
       </c>
       <c r="F8">
-        <v>0.9648106096504092</v>
+        <v>1.017080862657844</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036484258636996</v>
+        <v>1.041238419909981</v>
       </c>
       <c r="J8">
-        <v>1.004863659458469</v>
+        <v>1.016145186728715</v>
       </c>
       <c r="K8">
-        <v>1.01539696608882</v>
+        <v>1.027252490124598</v>
       </c>
       <c r="L8">
-        <v>1.00041762378453</v>
+        <v>1.012596196138535</v>
       </c>
       <c r="M8">
-        <v>0.9764893277034591</v>
+        <v>1.028034328670483</v>
       </c>
       <c r="N8">
-        <v>1.006290681114373</v>
+        <v>1.017588229447352</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9587914992788593</v>
+        <v>0.9830619308987681</v>
       </c>
       <c r="D9">
-        <v>0.9854241397646084</v>
+        <v>1.007571304739861</v>
       </c>
       <c r="E9">
-        <v>0.9683359795562274</v>
+        <v>0.9924204594690113</v>
       </c>
       <c r="F9">
-        <v>0.9279354614353283</v>
+        <v>1.006140538841977</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026557283315789</v>
+        <v>1.038605157724571</v>
       </c>
       <c r="J9">
-        <v>0.9858883331494305</v>
+        <v>1.009227328766668</v>
       </c>
       <c r="K9">
-        <v>0.9987582113873932</v>
+        <v>1.020542725651536</v>
       </c>
       <c r="L9">
-        <v>0.9819645606976866</v>
+        <v>1.005637718208377</v>
       </c>
       <c r="M9">
-        <v>0.9423169921532419</v>
+        <v>1.01913476954531</v>
       </c>
       <c r="N9">
-        <v>0.9872884076654752</v>
+        <v>1.010660547333509</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9408066654513049</v>
+        <v>0.9751349925033923</v>
       </c>
       <c r="D10">
-        <v>0.9712747254418982</v>
+        <v>1.001478546260366</v>
       </c>
       <c r="E10">
-        <v>0.9527688009879002</v>
+        <v>0.9861415525853052</v>
       </c>
       <c r="F10">
-        <v>0.8989992262664809</v>
+        <v>0.9985034483484356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.01891768621812</v>
+        <v>1.036704325363559</v>
       </c>
       <c r="J10">
-        <v>0.9715829362161633</v>
+        <v>1.004371096880109</v>
       </c>
       <c r="K10">
-        <v>0.9861827428524944</v>
+        <v>1.015821156314363</v>
       </c>
       <c r="L10">
-        <v>0.9680466130568002</v>
+        <v>1.000765616421617</v>
       </c>
       <c r="M10">
-        <v>0.9154676022189571</v>
+        <v>1.012899776172204</v>
       </c>
       <c r="N10">
-        <v>0.9729626954277109</v>
+        <v>1.005797419040653</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9323903243901217</v>
+        <v>0.9716009651720375</v>
       </c>
       <c r="D11">
-        <v>0.9646545870530751</v>
+        <v>0.9987672986185907</v>
       </c>
       <c r="E11">
-        <v>0.945490295888424</v>
+        <v>0.9833524788017206</v>
       </c>
       <c r="F11">
-        <v>0.8849844692872637</v>
+        <v>0.9951066571867772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.015287967433731</v>
+        <v>1.035844466826148</v>
       </c>
       <c r="J11">
-        <v>0.9648737656580847</v>
+        <v>1.002204833038746</v>
       </c>
       <c r="K11">
-        <v>0.9802753349297656</v>
+        <v>1.013712499383987</v>
       </c>
       <c r="L11">
-        <v>0.9615189927369374</v>
+        <v>0.9985953232089329</v>
       </c>
       <c r="M11">
-        <v>0.9024586574920413</v>
+        <v>1.010121448575191</v>
       </c>
       <c r="N11">
-        <v>0.9662439970778871</v>
+        <v>1.003628078856162</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9291520037964264</v>
+        <v>0.9702720886736147</v>
       </c>
       <c r="D12">
-        <v>0.96210747249968</v>
+        <v>0.9977486625390176</v>
       </c>
       <c r="E12">
-        <v>0.9426910393441855</v>
+        <v>0.9823053379852198</v>
       </c>
       <c r="F12">
-        <v>0.8794973650068484</v>
+        <v>0.9938306623108112</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.013881739753729</v>
+        <v>1.035519336837015</v>
       </c>
       <c r="J12">
-        <v>0.9622898991494014</v>
+        <v>1.001390139179388</v>
       </c>
       <c r="K12">
-        <v>0.977998512646344</v>
+        <v>1.012919122099351</v>
       </c>
       <c r="L12">
-        <v>0.9590052003407976</v>
+        <v>0.997779577069194</v>
       </c>
       <c r="M12">
-        <v>0.8973650543191504</v>
+        <v>1.009077019294939</v>
       </c>
       <c r="N12">
-        <v>0.9636564611823877</v>
+        <v>1.002812228038077</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9298520530019985</v>
+        <v>0.9705578849013293</v>
       </c>
       <c r="D13">
-        <v>0.9626580988008276</v>
+        <v>0.9979676963011472</v>
       </c>
       <c r="E13">
-        <v>0.9432961110136493</v>
+        <v>0.9825304680924793</v>
       </c>
       <c r="F13">
-        <v>0.8806883034699322</v>
+        <v>0.994105026547091</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.014186197234155</v>
+        <v>1.035589341684812</v>
       </c>
       <c r="J13">
-        <v>0.9628485837138652</v>
+        <v>1.001565357018791</v>
       </c>
       <c r="K13">
-        <v>0.9784908924925472</v>
+        <v>1.013089770720284</v>
       </c>
       <c r="L13">
-        <v>0.9595487227702307</v>
+        <v>0.9979550002195282</v>
       </c>
       <c r="M13">
-        <v>0.898470590257239</v>
+        <v>1.009301626336611</v>
       </c>
       <c r="N13">
-        <v>0.9642159391430153</v>
+        <v>1.00298769470691</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9321250529872531</v>
+        <v>0.9714914554617219</v>
       </c>
       <c r="D14">
-        <v>0.9644459361848925</v>
+        <v>0.9986833371480679</v>
       </c>
       <c r="E14">
-        <v>0.9452609636609527</v>
+        <v>0.9832661529765995</v>
       </c>
       <c r="F14">
-        <v>0.8845370672736993</v>
+        <v>0.9950014789278668</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.015172979234674</v>
+        <v>1.035817709869905</v>
       </c>
       <c r="J14">
-        <v>0.9646621549011742</v>
+        <v>1.002137698224472</v>
       </c>
       <c r="K14">
-        <v>0.9800889073588529</v>
+        <v>1.013647128112167</v>
       </c>
       <c r="L14">
-        <v>0.9613131164157267</v>
+        <v>0.998528092240957</v>
       </c>
       <c r="M14">
-        <v>0.9020433431505103</v>
+        <v>1.010035373229549</v>
       </c>
       <c r="N14">
-        <v>0.9660320858094295</v>
+        <v>1.003560848702752</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.933510045038373</v>
+        <v>0.972064486345197</v>
       </c>
       <c r="D15">
-        <v>0.9655353127751634</v>
+        <v>0.9991227173668673</v>
       </c>
       <c r="E15">
-        <v>0.9464583687860658</v>
+        <v>0.9837179360029453</v>
       </c>
       <c r="F15">
-        <v>0.8868689831236125</v>
+        <v>0.995551897162588</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.015772938021911</v>
+        <v>1.03595764775272</v>
       </c>
       <c r="J15">
-        <v>0.9657668840424951</v>
+        <v>1.00248898933411</v>
       </c>
       <c r="K15">
-        <v>0.9810620937743383</v>
+        <v>1.013989177206079</v>
       </c>
       <c r="L15">
-        <v>0.9623879160147637</v>
+        <v>0.998879905387792</v>
       </c>
       <c r="M15">
-        <v>0.9042080051397589</v>
+        <v>1.010485791388489</v>
       </c>
       <c r="N15">
-        <v>0.9671383837928452</v>
+        <v>1.003912638686059</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9413505943011785</v>
+        <v>0.9753673168514565</v>
       </c>
       <c r="D16">
-        <v>0.9717025911565043</v>
+        <v>1.001656894992642</v>
       </c>
       <c r="E16">
-        <v>0.9532393488245893</v>
+        <v>0.986325123734566</v>
       </c>
       <c r="F16">
-        <v>0.8998935778995787</v>
+        <v>0.9987269238891632</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.019151048368817</v>
+        <v>1.03676059843207</v>
       </c>
       <c r="J16">
-        <v>0.9720162212638076</v>
+        <v>1.004513484522234</v>
       </c>
       <c r="K16">
-        <v>0.9865640329643713</v>
+        <v>1.015959708002062</v>
       </c>
       <c r="L16">
-        <v>0.9684681833075074</v>
+        <v>1.000908332812702</v>
       </c>
       <c r="M16">
-        <v>0.9162977013166519</v>
+        <v>1.013082456766211</v>
       </c>
       <c r="N16">
-        <v>0.9733965957898213</v>
+        <v>1.005940008889562</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9460895186321535</v>
+        <v>0.9774112660894149</v>
       </c>
       <c r="D17">
-        <v>0.9754304793582527</v>
+        <v>1.003226562537232</v>
       </c>
       <c r="E17">
-        <v>0.9573396917978482</v>
+        <v>0.9879413226708862</v>
       </c>
       <c r="F17">
-        <v>0.9076313715236992</v>
+        <v>1.000693943033746</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.021178043088917</v>
+        <v>1.037254273656759</v>
       </c>
       <c r="J17">
-        <v>0.9757895363723696</v>
+        <v>1.00576605251387</v>
       </c>
       <c r="K17">
-        <v>0.9898834664479742</v>
+        <v>1.01717825395549</v>
       </c>
       <c r="L17">
-        <v>0.9721394740050587</v>
+        <v>1.002164140156746</v>
       </c>
       <c r="M17">
-        <v>0.9234790903896457</v>
+        <v>1.014689815845538</v>
       </c>
       <c r="N17">
-        <v>0.9771752694386426</v>
+        <v>1.007194355671418</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9487944022011945</v>
+        <v>0.9785937285217378</v>
       </c>
       <c r="D18">
-        <v>0.9775584198832884</v>
+        <v>1.004135117065528</v>
       </c>
       <c r="E18">
-        <v>0.959680658182509</v>
+        <v>0.988877287138066</v>
       </c>
       <c r="F18">
-        <v>0.9120062440130632</v>
+        <v>1.001832654846875</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.022330099496978</v>
+        <v>1.037538692023435</v>
       </c>
       <c r="J18">
-        <v>0.9779419350434542</v>
+        <v>1.00649056532686</v>
       </c>
       <c r="K18">
-        <v>0.991776104157859</v>
+        <v>1.017882852717921</v>
       </c>
       <c r="L18">
-        <v>0.974233646327907</v>
+        <v>1.002890815424512</v>
       </c>
       <c r="M18">
-        <v>0.9275389012114289</v>
+        <v>1.015619829086688</v>
       </c>
       <c r="N18">
-        <v>0.979330724762724</v>
+        <v>1.007919897375705</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9497071019539742</v>
+        <v>0.9789952925076117</v>
       </c>
       <c r="D19">
-        <v>0.9782764679118452</v>
+        <v>1.004443739403017</v>
       </c>
       <c r="E19">
-        <v>0.960470651970491</v>
+        <v>0.9891953015829817</v>
       </c>
       <c r="F19">
-        <v>0.913475904161814</v>
+        <v>1.002219487061342</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.022718032820603</v>
+        <v>1.037635078135682</v>
       </c>
       <c r="J19">
-        <v>0.9786679892297585</v>
+        <v>1.006736587552249</v>
       </c>
       <c r="K19">
-        <v>0.9924143963610181</v>
+        <v>1.018122072259142</v>
       </c>
       <c r="L19">
-        <v>0.9749400504178348</v>
+        <v>1.003137620793954</v>
       </c>
       <c r="M19">
-        <v>0.9289026314544422</v>
+        <v>1.01593568055352</v>
       </c>
       <c r="N19">
-        <v>0.9800578100292521</v>
+        <v>1.008166268980873</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.945587316435525</v>
+        <v>0.9771929833836787</v>
       </c>
       <c r="D20">
-        <v>0.9750354067098759</v>
+        <v>1.003058880816379</v>
       </c>
       <c r="E20">
-        <v>0.9569051009731491</v>
+        <v>0.9877686208488005</v>
       </c>
       <c r="F20">
-        <v>0.9068158508874854</v>
+        <v>1.000483797210901</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.020963754863412</v>
+        <v>1.037201674013929</v>
       </c>
       <c r="J20">
-        <v>0.975389803699846</v>
+        <v>1.005632297189079</v>
       </c>
       <c r="K20">
-        <v>0.9895319073134919</v>
+        <v>1.017048155899945</v>
       </c>
       <c r="L20">
-        <v>0.9717505514644553</v>
+        <v>1.00203000892243</v>
       </c>
       <c r="M20">
-        <v>0.9227222590758182</v>
+        <v>1.014518144959185</v>
       </c>
       <c r="N20">
-        <v>0.976774969099874</v>
+        <v>1.007060410398724</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9314589758140817</v>
+        <v>0.9712169965884193</v>
       </c>
       <c r="D21">
-        <v>0.9639220297887727</v>
+        <v>0.9984729227150573</v>
       </c>
       <c r="E21">
-        <v>0.9446851484614519</v>
+        <v>0.9830498250566496</v>
       </c>
       <c r="F21">
-        <v>0.8834120588656008</v>
+        <v>0.9947378965974703</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.014884091953935</v>
+        <v>1.035750621384899</v>
       </c>
       <c r="J21">
-        <v>0.9641307762537142</v>
+        <v>1.001969439631163</v>
       </c>
       <c r="K21">
-        <v>0.9796207375152192</v>
+        <v>1.013483283913332</v>
       </c>
       <c r="L21">
-        <v>0.96079614080864</v>
+        <v>0.9983596001357886</v>
       </c>
       <c r="M21">
-        <v>0.9009990174321234</v>
+        <v>1.009819651655681</v>
       </c>
       <c r="N21">
-        <v>0.9654999525433402</v>
+        <v>1.003392351162941</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9219138432029074</v>
+        <v>0.9673655305574574</v>
       </c>
       <c r="D22">
-        <v>0.9564141262130315</v>
+        <v>0.9955223572470192</v>
       </c>
       <c r="E22">
-        <v>0.9364369853545047</v>
+        <v>0.9800180652648259</v>
       </c>
       <c r="F22">
-        <v>0.8670195140223412</v>
+        <v>0.9910422035947249</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.010718384124196</v>
+        <v>1.034804958205404</v>
       </c>
       <c r="J22">
-        <v>0.9565097032686706</v>
+        <v>0.999608046456426</v>
       </c>
       <c r="K22">
-        <v>0.9729014653672965</v>
+        <v>1.011183042063504</v>
       </c>
       <c r="L22">
-        <v>0.9533823310161602</v>
+        <v>0.9959960402075508</v>
       </c>
       <c r="M22">
-        <v>0.8857821761875182</v>
+        <v>1.006793229619853</v>
       </c>
       <c r="N22">
-        <v>0.9578680567605087</v>
+        <v>1.00102760453904</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9270441642403534</v>
+        <v>0.9694165118890755</v>
       </c>
       <c r="D23">
-        <v>0.9604495369609303</v>
+        <v>0.997093083059742</v>
       </c>
       <c r="E23">
-        <v>0.9408693871049023</v>
+        <v>0.9816316181782031</v>
       </c>
       <c r="F23">
-        <v>0.8758950999345348</v>
+        <v>0.9930095021646103</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.012963456436951</v>
+        <v>1.035309506856189</v>
       </c>
       <c r="J23">
-        <v>0.9606073296742557</v>
+        <v>1.000865582280708</v>
       </c>
       <c r="K23">
-        <v>0.9765153436187409</v>
+        <v>1.012408194926725</v>
       </c>
       <c r="L23">
-        <v>0.9573683354815209</v>
+        <v>0.9972544737927836</v>
       </c>
       <c r="M23">
-        <v>0.894021111093574</v>
+        <v>1.008404670375575</v>
       </c>
       <c r="N23">
-        <v>0.9619715022655939</v>
+        <v>1.002286926208434</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9458144218245582</v>
+        <v>0.9772916459705965</v>
       </c>
       <c r="D24">
-        <v>0.9752140656483234</v>
+        <v>1.003134670576431</v>
       </c>
       <c r="E24">
-        <v>0.9571016294496161</v>
+        <v>0.9878466781443417</v>
       </c>
       <c r="F24">
-        <v>0.9071847733155551</v>
+        <v>1.000578779636051</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02106067529802</v>
+        <v>1.037225452433981</v>
       </c>
       <c r="J24">
-        <v>0.9755705745688596</v>
+        <v>1.005692754242291</v>
       </c>
       <c r="K24">
-        <v>0.9896908953390749</v>
+        <v>1.017106960607412</v>
       </c>
       <c r="L24">
-        <v>0.9719264337761128</v>
+        <v>1.00209063499067</v>
       </c>
       <c r="M24">
-        <v>0.9230646333484246</v>
+        <v>1.014595738873392</v>
       </c>
       <c r="N24">
-        <v>0.9769559966842563</v>
+        <v>1.007120953307886</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9652974868685509</v>
+        <v>0.9860509712886704</v>
       </c>
       <c r="D25">
-        <v>0.9905438901636747</v>
+        <v>1.009872502741988</v>
       </c>
       <c r="E25">
-        <v>0.9739711316254446</v>
+        <v>0.9947964075296672</v>
       </c>
       <c r="F25">
-        <v>0.9381177539515952</v>
+        <v>1.009026761547447</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029282214256722</v>
+        <v>1.039310799411656</v>
       </c>
       <c r="J25">
-        <v>0.9910519538798499</v>
+        <v>1.011057070831677</v>
       </c>
       <c r="K25">
-        <v>1.003290795423357</v>
+        <v>1.022319469860516</v>
       </c>
       <c r="L25">
-        <v>0.9869874144252893</v>
+        <v>1.007476043252195</v>
       </c>
       <c r="M25">
-        <v>0.9517592105100702</v>
+        <v>1.02148654635024</v>
       </c>
       <c r="N25">
-        <v>0.9924593613296073</v>
+        <v>1.012492887842125</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9927617007729194</v>
+        <v>1.02678272241777</v>
       </c>
       <c r="D2">
-        <v>1.015045720629009</v>
+        <v>1.035990295779749</v>
       </c>
       <c r="E2">
-        <v>1.000147637506901</v>
+        <v>1.026956069319493</v>
       </c>
       <c r="F2">
-        <v>1.015519672627023</v>
+        <v>1.044623112239012</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040869841861966</v>
+        <v>1.031752871218361</v>
       </c>
       <c r="J2">
-        <v>1.015161084744078</v>
+        <v>1.03194424383132</v>
       </c>
       <c r="K2">
-        <v>1.026299349842881</v>
+        <v>1.038785318876223</v>
       </c>
       <c r="L2">
-        <v>1.011604915887204</v>
+        <v>1.029777203930575</v>
       </c>
       <c r="M2">
-        <v>1.026766946388797</v>
+        <v>1.047393642020182</v>
       </c>
       <c r="N2">
-        <v>1.016602729925012</v>
+        <v>1.033409723023232</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9974878929811454</v>
+        <v>1.027783391706685</v>
       </c>
       <c r="D3">
-        <v>1.018694141171973</v>
+        <v>1.036782915075394</v>
       </c>
       <c r="E3">
-        <v>1.003930741447544</v>
+        <v>1.027807269147658</v>
       </c>
       <c r="F3">
-        <v>1.020103380586615</v>
+        <v>1.04565123082715</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041944555360566</v>
+        <v>1.031914092206249</v>
       </c>
       <c r="J3">
-        <v>1.018047275624803</v>
+        <v>1.032584556328294</v>
       </c>
       <c r="K3">
-        <v>1.029093286557792</v>
+        <v>1.039387492042086</v>
       </c>
       <c r="L3">
-        <v>1.014513573554451</v>
+        <v>1.030435909376184</v>
       </c>
       <c r="M3">
-        <v>1.030485337699379</v>
+        <v>1.048232470522157</v>
       </c>
       <c r="N3">
-        <v>1.019493019527845</v>
+        <v>1.034050944837385</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000482391902396</v>
+        <v>1.028431292805147</v>
       </c>
       <c r="D4">
-        <v>1.02100767131942</v>
+        <v>1.037295916674169</v>
       </c>
       <c r="E4">
-        <v>1.006333998053661</v>
+        <v>1.028358769056981</v>
       </c>
       <c r="F4">
-        <v>1.023012335275403</v>
+        <v>1.04631711992115</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042614410812988</v>
+        <v>1.032017072926416</v>
       </c>
       <c r="J4">
-        <v>1.019873766090084</v>
+        <v>1.032998708386763</v>
       </c>
       <c r="K4">
-        <v>1.030858995130917</v>
+        <v>1.039776608543154</v>
       </c>
       <c r="L4">
-        <v>1.0163565737055</v>
+        <v>1.030862212483177</v>
       </c>
       <c r="M4">
-        <v>1.032840733950838</v>
+        <v>1.048775270650242</v>
       </c>
       <c r="N4">
-        <v>1.021322103819088</v>
+        <v>1.03446568503928</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.001726605748278</v>
+        <v>1.028703765969344</v>
       </c>
       <c r="D5">
-        <v>1.021969337532815</v>
+        <v>1.037511611129003</v>
       </c>
       <c r="E5">
-        <v>1.007334011425934</v>
+        <v>1.02859079018141</v>
       </c>
       <c r="F5">
-        <v>1.024222096464449</v>
+        <v>1.046597209025801</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042890032349606</v>
+        <v>1.032060044775318</v>
       </c>
       <c r="J5">
-        <v>1.020632109093345</v>
+        <v>1.033172775813054</v>
       </c>
       <c r="K5">
-        <v>1.031591510439722</v>
+        <v>1.039940065470678</v>
       </c>
       <c r="L5">
-        <v>1.017122319691423</v>
+        <v>1.03104144788709</v>
       </c>
       <c r="M5">
-        <v>1.03381921548456</v>
+        <v>1.04900346821648</v>
       </c>
       <c r="N5">
-        <v>1.022081523756397</v>
+        <v>1.034639999661282</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.001934670222318</v>
+        <v>1.028749521000924</v>
       </c>
       <c r="D6">
-        <v>1.022130174242769</v>
+        <v>1.037547828821709</v>
       </c>
       <c r="E6">
-        <v>1.007501323770516</v>
+        <v>1.028629757521451</v>
       </c>
       <c r="F6">
-        <v>1.024424462439979</v>
+        <v>1.046644245948887</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042935963135222</v>
+        <v>1.032067241087118</v>
       </c>
       <c r="J6">
-        <v>1.02075888928756</v>
+        <v>1.033202000010946</v>
       </c>
       <c r="K6">
-        <v>1.031713937512677</v>
+        <v>1.039967503098991</v>
       </c>
       <c r="L6">
-        <v>1.017250369715837</v>
+        <v>1.0310715433085</v>
       </c>
       <c r="M6">
-        <v>1.033982830387735</v>
+        <v>1.049041783824189</v>
       </c>
       <c r="N6">
-        <v>1.022208483993029</v>
+        <v>1.034669265360887</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000499074075318</v>
+        <v>1.028434933230097</v>
       </c>
       <c r="D7">
-        <v>1.021020563670052</v>
+        <v>1.037298798683082</v>
       </c>
       <c r="E7">
-        <v>1.00634740032882</v>
+        <v>1.028361868665684</v>
       </c>
       <c r="F7">
-        <v>1.023028551261519</v>
+        <v>1.046320861899868</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042618117030336</v>
+        <v>1.032017648381188</v>
       </c>
       <c r="J7">
-        <v>1.019883936078463</v>
+        <v>1.033001034450526</v>
       </c>
       <c r="K7">
-        <v>1.030868821107622</v>
+        <v>1.039778793165218</v>
       </c>
       <c r="L7">
-        <v>1.016366840808859</v>
+        <v>1.030864607367314</v>
       </c>
       <c r="M7">
-        <v>1.032853854034066</v>
+        <v>1.048778319821128</v>
       </c>
       <c r="N7">
-        <v>1.021332288250017</v>
+        <v>1.034468014406321</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.99437247287302</v>
+        <v>1.027120819928163</v>
       </c>
       <c r="D8">
-        <v>1.016288730673531</v>
+        <v>1.03625813887381</v>
       </c>
       <c r="E8">
-        <v>1.001435636405474</v>
+        <v>1.02724358727689</v>
       </c>
       <c r="F8">
-        <v>1.017080862657844</v>
+        <v>1.044970439220484</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041238419909981</v>
+        <v>1.03180763380668</v>
       </c>
       <c r="J8">
-        <v>1.016145186728715</v>
+        <v>1.032160675827858</v>
       </c>
       <c r="K8">
-        <v>1.027252490124598</v>
+        <v>1.038988935326917</v>
       </c>
       <c r="L8">
-        <v>1.012596196138535</v>
+        <v>1.029999800188894</v>
       </c>
       <c r="M8">
-        <v>1.028034328670483</v>
+        <v>1.047677122959295</v>
       </c>
       <c r="N8">
-        <v>1.017588229447352</v>
+        <v>1.033626462378018</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9830619308987681</v>
+        <v>1.024808278453296</v>
       </c>
       <c r="D9">
-        <v>1.007571304739861</v>
+        <v>1.034425359983043</v>
       </c>
       <c r="E9">
-        <v>0.9924204594690113</v>
+        <v>1.025278566465783</v>
       </c>
       <c r="F9">
-        <v>1.006140538841977</v>
+        <v>1.042595669349913</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038605157724571</v>
+        <v>1.0314273174679</v>
       </c>
       <c r="J9">
-        <v>1.009227328766668</v>
+        <v>1.030678562616514</v>
       </c>
       <c r="K9">
-        <v>1.020542725651536</v>
+        <v>1.037593083009602</v>
       </c>
       <c r="L9">
-        <v>1.005637718208377</v>
+        <v>1.028476520237185</v>
       </c>
       <c r="M9">
-        <v>1.01913476954531</v>
+        <v>1.04573688026583</v>
       </c>
       <c r="N9">
-        <v>1.010660547333509</v>
+        <v>1.032142244395913</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9751349925033923</v>
+        <v>1.023268691582084</v>
       </c>
       <c r="D10">
-        <v>1.001478546260366</v>
+        <v>1.03320424048664</v>
       </c>
       <c r="E10">
-        <v>0.9861415525853052</v>
+        <v>1.023972332471113</v>
       </c>
       <c r="F10">
-        <v>0.9985034483484356</v>
+        <v>1.041015801609706</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036704325363559</v>
+        <v>1.031166911372917</v>
       </c>
       <c r="J10">
-        <v>1.004371096880109</v>
+        <v>1.029689657212544</v>
       </c>
       <c r="K10">
-        <v>1.015821156314363</v>
+        <v>1.036659857809752</v>
       </c>
       <c r="L10">
-        <v>1.000765616421617</v>
+        <v>1.027461462178128</v>
       </c>
       <c r="M10">
-        <v>1.012899776172204</v>
+        <v>1.044443574519446</v>
       </c>
       <c r="N10">
-        <v>1.005797419040653</v>
+        <v>1.03115193463284</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9716009651720375</v>
+        <v>1.02260253837558</v>
       </c>
       <c r="D11">
-        <v>0.9987672986185907</v>
+        <v>1.03267566903902</v>
       </c>
       <c r="E11">
-        <v>0.9833524788017206</v>
+        <v>1.023407627378774</v>
       </c>
       <c r="F11">
-        <v>0.9951066571867772</v>
+        <v>1.040332497661373</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035844466826148</v>
+        <v>1.031052530315924</v>
       </c>
       <c r="J11">
-        <v>1.002204833038746</v>
+        <v>1.029261261456927</v>
       </c>
       <c r="K11">
-        <v>1.013712499383987</v>
+        <v>1.036255140351085</v>
       </c>
       <c r="L11">
-        <v>0.9985953232089329</v>
+        <v>1.027022049420865</v>
       </c>
       <c r="M11">
-        <v>1.010121448575191</v>
+        <v>1.043883613887384</v>
       </c>
       <c r="N11">
-        <v>1.003628078856162</v>
+        <v>1.030722930506113</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9702720886736147</v>
+        <v>1.022355174565809</v>
       </c>
       <c r="D12">
-        <v>0.9977486625390176</v>
+        <v>1.032479362306036</v>
       </c>
       <c r="E12">
-        <v>0.9823053379852198</v>
+        <v>1.023198007342126</v>
       </c>
       <c r="F12">
-        <v>0.9938306623108112</v>
+        <v>1.040078807510529</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035519336837015</v>
+        <v>1.031009800567883</v>
       </c>
       <c r="J12">
-        <v>1.001390139179388</v>
+        <v>1.029102107770846</v>
       </c>
       <c r="K12">
-        <v>1.012919122099351</v>
+        <v>1.03610471711644</v>
       </c>
       <c r="L12">
-        <v>0.997779577069194</v>
+        <v>1.026858849780024</v>
       </c>
       <c r="M12">
-        <v>1.009077019294939</v>
+        <v>1.043675627734158</v>
       </c>
       <c r="N12">
-        <v>1.002812228038077</v>
+        <v>1.030563550803542</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9705578849013293</v>
+        <v>1.022408231536705</v>
       </c>
       <c r="D13">
-        <v>0.9979676963011472</v>
+        <v>1.032521469472932</v>
       </c>
       <c r="E13">
-        <v>0.9825304680924793</v>
+        <v>1.023242965356087</v>
       </c>
       <c r="F13">
-        <v>0.994105026547091</v>
+        <v>1.040133219495071</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035589341684812</v>
+        <v>1.031018977258023</v>
       </c>
       <c r="J13">
-        <v>1.001565357018791</v>
+        <v>1.029136248053613</v>
       </c>
       <c r="K13">
-        <v>1.013089770720284</v>
+        <v>1.03613698761463</v>
       </c>
       <c r="L13">
-        <v>0.9979550002195282</v>
+        <v>1.026893855839524</v>
       </c>
       <c r="M13">
-        <v>1.009301626336611</v>
+        <v>1.043720241088795</v>
       </c>
       <c r="N13">
-        <v>1.00298769470691</v>
+        <v>1.030597739569426</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9714914554617219</v>
+        <v>1.022582089670946</v>
       </c>
       <c r="D14">
-        <v>0.9986833371480679</v>
+        <v>1.03265944168147</v>
       </c>
       <c r="E14">
-        <v>0.9832661529765995</v>
+        <v>1.02339029732959</v>
       </c>
       <c r="F14">
-        <v>0.9950014789278668</v>
+        <v>1.040311525114887</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035817709869905</v>
+        <v>1.031049003227361</v>
       </c>
       <c r="J14">
-        <v>1.002137698224472</v>
+        <v>1.029248106340059</v>
       </c>
       <c r="K14">
-        <v>1.013647128112167</v>
+        <v>1.036242708215676</v>
       </c>
       <c r="L14">
-        <v>0.998528092240957</v>
+        <v>1.027008558920127</v>
       </c>
       <c r="M14">
-        <v>1.010035373229549</v>
+        <v>1.043866421516303</v>
       </c>
       <c r="N14">
-        <v>1.003560848702752</v>
+        <v>1.03070975670747</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.972064486345197</v>
+        <v>1.022689219373545</v>
       </c>
       <c r="D15">
-        <v>0.9991227173668673</v>
+        <v>1.032744454684167</v>
       </c>
       <c r="E15">
-        <v>0.9837179360029453</v>
+        <v>1.023481091546951</v>
       </c>
       <c r="F15">
-        <v>0.995551897162588</v>
+        <v>1.040421400932074</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03595764775272</v>
+        <v>1.031067470959316</v>
       </c>
       <c r="J15">
-        <v>1.00248898933411</v>
+        <v>1.02931702217299</v>
       </c>
       <c r="K15">
-        <v>1.013989177206079</v>
+        <v>1.036307833845323</v>
       </c>
       <c r="L15">
-        <v>0.998879905387792</v>
+        <v>1.027079233655797</v>
       </c>
       <c r="M15">
-        <v>1.010485791388489</v>
+        <v>1.043956489205776</v>
       </c>
       <c r="N15">
-        <v>1.003912638686059</v>
+        <v>1.030778770408788</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9753673168514565</v>
+        <v>1.023312912497616</v>
       </c>
       <c r="D16">
-        <v>1.001656894992642</v>
+        <v>1.03323932393831</v>
       </c>
       <c r="E16">
-        <v>0.986325123734566</v>
+        <v>1.024009829190087</v>
       </c>
       <c r="F16">
-        <v>0.9987269238891632</v>
+        <v>1.041061166937448</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03676059843207</v>
+        <v>1.031174468294261</v>
       </c>
       <c r="J16">
-        <v>1.004513484522234</v>
+        <v>1.029718084408553</v>
       </c>
       <c r="K16">
-        <v>1.015959708002062</v>
+        <v>1.036686704472184</v>
       </c>
       <c r="L16">
-        <v>1.000908332812702</v>
+        <v>1.027490627017466</v>
       </c>
       <c r="M16">
-        <v>1.013082456766211</v>
+        <v>1.04448073836509</v>
       </c>
       <c r="N16">
-        <v>1.005940008889562</v>
+        <v>1.031180402198729</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9774112660894149</v>
+        <v>1.02370427228989</v>
       </c>
       <c r="D17">
-        <v>1.003226562537232</v>
+        <v>1.033549791600275</v>
       </c>
       <c r="E17">
-        <v>0.9879413226708862</v>
+        <v>1.024341734722878</v>
       </c>
       <c r="F17">
-        <v>1.000693943033746</v>
+        <v>1.041462687100872</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037254273656759</v>
+        <v>1.031241150507962</v>
       </c>
       <c r="J17">
-        <v>1.00576605251387</v>
+        <v>1.029969608851361</v>
       </c>
       <c r="K17">
-        <v>1.01717825395549</v>
+        <v>1.036924193239124</v>
       </c>
       <c r="L17">
-        <v>1.002164140156746</v>
+        <v>1.02774871422885</v>
       </c>
       <c r="M17">
-        <v>1.014689815845538</v>
+        <v>1.044809599739464</v>
       </c>
       <c r="N17">
-        <v>1.007194355671418</v>
+        <v>1.031432283835095</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9785937285217378</v>
+        <v>1.023932593869946</v>
       </c>
       <c r="D18">
-        <v>1.004135117065528</v>
+        <v>1.033730899566243</v>
       </c>
       <c r="E18">
-        <v>0.988877287138066</v>
+        <v>1.024535416653681</v>
       </c>
       <c r="F18">
-        <v>1.001832654846875</v>
+        <v>1.041696963113108</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037538692023435</v>
+        <v>1.031279888445225</v>
       </c>
       <c r="J18">
-        <v>1.00649056532686</v>
+        <v>1.030116300123304</v>
       </c>
       <c r="K18">
-        <v>1.017882852717921</v>
+        <v>1.037062656087707</v>
       </c>
       <c r="L18">
-        <v>1.002890815424512</v>
+        <v>1.027899263094074</v>
       </c>
       <c r="M18">
-        <v>1.015619829086688</v>
+        <v>1.045001423720517</v>
       </c>
       <c r="N18">
-        <v>1.007919897375705</v>
+        <v>1.03157918342547</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9789952925076117</v>
+        <v>1.024010453766131</v>
       </c>
       <c r="D19">
-        <v>1.004443739403017</v>
+        <v>1.033792655628903</v>
       </c>
       <c r="E19">
-        <v>0.9891953015829817</v>
+        <v>1.024601471923439</v>
       </c>
       <c r="F19">
-        <v>1.002219487061342</v>
+        <v>1.041776858061923</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037635078135682</v>
+        <v>1.031293070495236</v>
       </c>
       <c r="J19">
-        <v>1.006736587552249</v>
+        <v>1.030166314869597</v>
       </c>
       <c r="K19">
-        <v>1.018122072259142</v>
+        <v>1.037109858085856</v>
       </c>
       <c r="L19">
-        <v>1.003137620793954</v>
+        <v>1.02795059820505</v>
       </c>
       <c r="M19">
-        <v>1.01593568055352</v>
+        <v>1.045066831516112</v>
       </c>
       <c r="N19">
-        <v>1.008166268980873</v>
+        <v>1.03162926919844</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9771929833836787</v>
+        <v>1.02366227811713</v>
       </c>
       <c r="D20">
-        <v>1.003058880816379</v>
+        <v>1.033516479548161</v>
       </c>
       <c r="E20">
-        <v>0.9877686208488005</v>
+        <v>1.024306115389653</v>
       </c>
       <c r="F20">
-        <v>1.000483797210901</v>
+        <v>1.041419599910744</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037201674013929</v>
+        <v>1.031234012339825</v>
       </c>
       <c r="J20">
-        <v>1.005632297189079</v>
+        <v>1.029942624586865</v>
       </c>
       <c r="K20">
-        <v>1.017048155899945</v>
+        <v>1.036898719177115</v>
       </c>
       <c r="L20">
-        <v>1.00203000892243</v>
+        <v>1.027721022774827</v>
       </c>
       <c r="M20">
-        <v>1.014518144959185</v>
+        <v>1.044774315534124</v>
       </c>
       <c r="N20">
-        <v>1.007060410398724</v>
+        <v>1.031405261249849</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9712169965884193</v>
+        <v>1.022530890706547</v>
       </c>
       <c r="D21">
-        <v>0.9984729227150573</v>
+        <v>1.032618811517477</v>
       </c>
       <c r="E21">
-        <v>0.9830498250566496</v>
+        <v>1.023346907957807</v>
       </c>
       <c r="F21">
-        <v>0.9947378965974703</v>
+        <v>1.040259015252734</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035750621384899</v>
+        <v>1.031040168047336</v>
       </c>
       <c r="J21">
-        <v>1.001969439631163</v>
+        <v>1.029215167642655</v>
       </c>
       <c r="K21">
-        <v>1.013483283913332</v>
+        <v>1.036211578699332</v>
       </c>
       <c r="L21">
-        <v>0.9983596001357886</v>
+        <v>1.026974781224327</v>
       </c>
       <c r="M21">
-        <v>1.009819651655681</v>
+        <v>1.043823374792607</v>
       </c>
       <c r="N21">
-        <v>1.003392351162941</v>
+        <v>1.030676771233337</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9673655305574574</v>
+        <v>1.021819977504146</v>
       </c>
       <c r="D22">
-        <v>0.9955223572470192</v>
+        <v>1.032054575860991</v>
       </c>
       <c r="E22">
-        <v>0.9800180652648259</v>
+        <v>1.022744606836845</v>
       </c>
       <c r="F22">
-        <v>0.9910422035947249</v>
+        <v>1.039530000585918</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034804958205404</v>
+        <v>1.030916881643481</v>
       </c>
       <c r="J22">
-        <v>0.999608046456426</v>
+        <v>1.028757622408988</v>
       </c>
       <c r="K22">
-        <v>1.011183042063504</v>
+        <v>1.03577900762411</v>
       </c>
       <c r="L22">
-        <v>0.9959960402075508</v>
+        <v>1.026505692994717</v>
       </c>
       <c r="M22">
-        <v>1.006793229619853</v>
+        <v>1.043225528177851</v>
       </c>
       <c r="N22">
-        <v>1.00102760453904</v>
+        <v>1.030218576232957</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9694165118890755</v>
+        <v>1.022196804704844</v>
       </c>
       <c r="D23">
-        <v>0.997093083059742</v>
+        <v>1.032353671995052</v>
       </c>
       <c r="E23">
-        <v>0.9816316181782031</v>
+        <v>1.023063822798912</v>
       </c>
       <c r="F23">
-        <v>0.9930095021646103</v>
+        <v>1.039916399293734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035309506856189</v>
+        <v>1.030982371509366</v>
       </c>
       <c r="J23">
-        <v>1.000865582280708</v>
+        <v>1.029000191157304</v>
       </c>
       <c r="K23">
-        <v>1.012408194926725</v>
+        <v>1.036008372547595</v>
       </c>
       <c r="L23">
-        <v>0.9972544737927836</v>
+        <v>1.026754355506543</v>
       </c>
       <c r="M23">
-        <v>1.008404670375575</v>
+        <v>1.043542453218985</v>
       </c>
       <c r="N23">
-        <v>1.002286926208434</v>
+        <v>1.030461489456719</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9772916459705965</v>
+        <v>1.023681253327695</v>
       </c>
       <c r="D24">
-        <v>1.003134670576431</v>
+        <v>1.033531531776809</v>
       </c>
       <c r="E24">
-        <v>0.9878466781443417</v>
+        <v>1.024322209964213</v>
       </c>
       <c r="F24">
-        <v>1.000578779636051</v>
+        <v>1.041439068922184</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037225452433981</v>
+        <v>1.031237238254848</v>
       </c>
       <c r="J24">
-        <v>1.005692754242291</v>
+        <v>1.029954817672193</v>
       </c>
       <c r="K24">
-        <v>1.017106960607412</v>
+        <v>1.036910229995656</v>
       </c>
       <c r="L24">
-        <v>1.00209063499067</v>
+        <v>1.027733535317093</v>
       </c>
       <c r="M24">
-        <v>1.014595738873392</v>
+        <v>1.044790258933198</v>
       </c>
       <c r="N24">
-        <v>1.007120953307886</v>
+        <v>1.031417471650756</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9860509712886704</v>
+        <v>1.025405756409111</v>
       </c>
       <c r="D25">
-        <v>1.009872502741988</v>
+        <v>1.034899052654435</v>
       </c>
       <c r="E25">
-        <v>0.9947964075296672</v>
+        <v>1.02578590955212</v>
       </c>
       <c r="F25">
-        <v>1.009026761547447</v>
+        <v>1.043209024381091</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039310799411656</v>
+        <v>1.031526849678984</v>
       </c>
       <c r="J25">
-        <v>1.011057070831677</v>
+        <v>1.03106187362352</v>
       </c>
       <c r="K25">
-        <v>1.022319469860516</v>
+        <v>1.037954416053965</v>
       </c>
       <c r="L25">
-        <v>1.007476043252195</v>
+        <v>1.028870246463974</v>
       </c>
       <c r="M25">
-        <v>1.02148654635024</v>
+        <v>1.046238449816381</v>
       </c>
       <c r="N25">
-        <v>1.012492887842125</v>
+        <v>1.032526099748516</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.02678272241777</v>
+        <v>0.9927617007729196</v>
       </c>
       <c r="D2">
-        <v>1.035990295779749</v>
+        <v>1.01504572062901</v>
       </c>
       <c r="E2">
-        <v>1.026956069319493</v>
+        <v>1.000147637506901</v>
       </c>
       <c r="F2">
-        <v>1.044623112239012</v>
+        <v>1.015519672627024</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031752871218361</v>
+        <v>1.040869841861966</v>
       </c>
       <c r="J2">
-        <v>1.03194424383132</v>
+        <v>1.015161084744078</v>
       </c>
       <c r="K2">
-        <v>1.038785318876223</v>
+        <v>1.026299349842882</v>
       </c>
       <c r="L2">
-        <v>1.029777203930575</v>
+        <v>1.011604915887204</v>
       </c>
       <c r="M2">
-        <v>1.047393642020182</v>
+        <v>1.026766946388798</v>
       </c>
       <c r="N2">
-        <v>1.033409723023232</v>
+        <v>1.016602729925012</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027783391706685</v>
+        <v>0.9974878929811463</v>
       </c>
       <c r="D3">
-        <v>1.036782915075394</v>
+        <v>1.018694141171974</v>
       </c>
       <c r="E3">
-        <v>1.027807269147658</v>
+        <v>1.003930741447545</v>
       </c>
       <c r="F3">
-        <v>1.04565123082715</v>
+        <v>1.020103380586615</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.031914092206249</v>
+        <v>1.041944555360566</v>
       </c>
       <c r="J3">
-        <v>1.032584556328294</v>
+        <v>1.018047275624804</v>
       </c>
       <c r="K3">
-        <v>1.039387492042086</v>
+        <v>1.029093286557793</v>
       </c>
       <c r="L3">
-        <v>1.030435909376184</v>
+        <v>1.014513573554451</v>
       </c>
       <c r="M3">
-        <v>1.048232470522157</v>
+        <v>1.030485337699379</v>
       </c>
       <c r="N3">
-        <v>1.034050944837385</v>
+        <v>1.019493019527846</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.028431292805147</v>
+        <v>1.000482391902397</v>
       </c>
       <c r="D4">
-        <v>1.037295916674169</v>
+        <v>1.02100767131942</v>
       </c>
       <c r="E4">
-        <v>1.028358769056981</v>
+        <v>1.006333998053661</v>
       </c>
       <c r="F4">
-        <v>1.04631711992115</v>
+        <v>1.023012335275403</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032017072926416</v>
+        <v>1.042614410812988</v>
       </c>
       <c r="J4">
-        <v>1.032998708386763</v>
+        <v>1.019873766090084</v>
       </c>
       <c r="K4">
-        <v>1.039776608543154</v>
+        <v>1.030858995130917</v>
       </c>
       <c r="L4">
-        <v>1.030862212483177</v>
+        <v>1.016356573705501</v>
       </c>
       <c r="M4">
-        <v>1.048775270650242</v>
+        <v>1.032840733950839</v>
       </c>
       <c r="N4">
-        <v>1.03446568503928</v>
+        <v>1.021322103819088</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.028703765969344</v>
+        <v>1.001726605748279</v>
       </c>
       <c r="D5">
-        <v>1.037511611129003</v>
+        <v>1.021969337532815</v>
       </c>
       <c r="E5">
-        <v>1.02859079018141</v>
+        <v>1.007334011425935</v>
       </c>
       <c r="F5">
-        <v>1.046597209025801</v>
+        <v>1.02422209646445</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032060044775318</v>
+        <v>1.042890032349606</v>
       </c>
       <c r="J5">
-        <v>1.033172775813054</v>
+        <v>1.020632109093346</v>
       </c>
       <c r="K5">
-        <v>1.039940065470678</v>
+        <v>1.031591510439722</v>
       </c>
       <c r="L5">
-        <v>1.03104144788709</v>
+        <v>1.017122319691423</v>
       </c>
       <c r="M5">
-        <v>1.04900346821648</v>
+        <v>1.03381921548456</v>
       </c>
       <c r="N5">
-        <v>1.034639999661282</v>
+        <v>1.022081523756398</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.028749521000924</v>
+        <v>1.001934670222318</v>
       </c>
       <c r="D6">
-        <v>1.037547828821709</v>
+        <v>1.02213017424277</v>
       </c>
       <c r="E6">
-        <v>1.028629757521451</v>
+        <v>1.007501323770516</v>
       </c>
       <c r="F6">
-        <v>1.046644245948887</v>
+        <v>1.024424462439979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032067241087118</v>
+        <v>1.042935963135222</v>
       </c>
       <c r="J6">
-        <v>1.033202000010946</v>
+        <v>1.02075888928756</v>
       </c>
       <c r="K6">
-        <v>1.039967503098991</v>
+        <v>1.031713937512678</v>
       </c>
       <c r="L6">
-        <v>1.0310715433085</v>
+        <v>1.017250369715836</v>
       </c>
       <c r="M6">
-        <v>1.049041783824189</v>
+        <v>1.033982830387735</v>
       </c>
       <c r="N6">
-        <v>1.034669265360887</v>
+        <v>1.022208483993029</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.028434933230097</v>
+        <v>1.000499074075318</v>
       </c>
       <c r="D7">
-        <v>1.037298798683082</v>
+        <v>1.021020563670052</v>
       </c>
       <c r="E7">
-        <v>1.028361868665684</v>
+        <v>1.00634740032882</v>
       </c>
       <c r="F7">
-        <v>1.046320861899868</v>
+        <v>1.02302855126152</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032017648381188</v>
+        <v>1.042618117030336</v>
       </c>
       <c r="J7">
-        <v>1.033001034450526</v>
+        <v>1.019883936078463</v>
       </c>
       <c r="K7">
-        <v>1.039778793165218</v>
+        <v>1.030868821107622</v>
       </c>
       <c r="L7">
-        <v>1.030864607367314</v>
+        <v>1.01636684080886</v>
       </c>
       <c r="M7">
-        <v>1.048778319821128</v>
+        <v>1.032853854034067</v>
       </c>
       <c r="N7">
-        <v>1.034468014406321</v>
+        <v>1.021332288250017</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027120819928163</v>
+        <v>0.9943724728730194</v>
       </c>
       <c r="D8">
-        <v>1.03625813887381</v>
+        <v>1.01628873067353</v>
       </c>
       <c r="E8">
-        <v>1.02724358727689</v>
+        <v>1.001435636405473</v>
       </c>
       <c r="F8">
-        <v>1.044970439220484</v>
+        <v>1.017080862657844</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03180763380668</v>
+        <v>1.04123841990998</v>
       </c>
       <c r="J8">
-        <v>1.032160675827858</v>
+        <v>1.016145186728715</v>
       </c>
       <c r="K8">
-        <v>1.038988935326917</v>
+        <v>1.027252490124597</v>
       </c>
       <c r="L8">
-        <v>1.029999800188894</v>
+        <v>1.012596196138535</v>
       </c>
       <c r="M8">
-        <v>1.047677122959295</v>
+        <v>1.028034328670483</v>
       </c>
       <c r="N8">
-        <v>1.033626462378018</v>
+        <v>1.017588229447351</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024808278453296</v>
+        <v>0.9830619308987689</v>
       </c>
       <c r="D9">
-        <v>1.034425359983043</v>
+        <v>1.007571304739862</v>
       </c>
       <c r="E9">
-        <v>1.025278566465783</v>
+        <v>0.992420459469012</v>
       </c>
       <c r="F9">
-        <v>1.042595669349913</v>
+        <v>1.006140538841978</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0314273174679</v>
+        <v>1.038605157724571</v>
       </c>
       <c r="J9">
-        <v>1.030678562616514</v>
+        <v>1.009227328766668</v>
       </c>
       <c r="K9">
-        <v>1.037593083009602</v>
+        <v>1.020542725651536</v>
       </c>
       <c r="L9">
-        <v>1.028476520237185</v>
+        <v>1.005637718208378</v>
       </c>
       <c r="M9">
-        <v>1.04573688026583</v>
+        <v>1.019134769545311</v>
       </c>
       <c r="N9">
-        <v>1.032142244395913</v>
+        <v>1.01066054733351</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023268691582084</v>
+        <v>0.9751349925033933</v>
       </c>
       <c r="D10">
-        <v>1.03320424048664</v>
+        <v>1.001478546260367</v>
       </c>
       <c r="E10">
-        <v>1.023972332471113</v>
+        <v>0.9861415525853059</v>
       </c>
       <c r="F10">
-        <v>1.041015801609706</v>
+        <v>0.9985034483484369</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031166911372917</v>
+        <v>1.03670432536356</v>
       </c>
       <c r="J10">
-        <v>1.029689657212544</v>
+        <v>1.00437109688011</v>
       </c>
       <c r="K10">
-        <v>1.036659857809752</v>
+        <v>1.015821156314364</v>
       </c>
       <c r="L10">
-        <v>1.027461462178128</v>
+        <v>1.000765616421618</v>
       </c>
       <c r="M10">
-        <v>1.044443574519446</v>
+        <v>1.012899776172205</v>
       </c>
       <c r="N10">
-        <v>1.03115193463284</v>
+        <v>1.005797419040654</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.02260253837558</v>
+        <v>0.9716009651720379</v>
       </c>
       <c r="D11">
-        <v>1.03267566903902</v>
+        <v>0.9987672986185911</v>
       </c>
       <c r="E11">
-        <v>1.023407627378774</v>
+        <v>0.9833524788017206</v>
       </c>
       <c r="F11">
-        <v>1.040332497661373</v>
+        <v>0.9951066571867778</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031052530315924</v>
+        <v>1.035844466826149</v>
       </c>
       <c r="J11">
-        <v>1.029261261456927</v>
+        <v>1.002204833038746</v>
       </c>
       <c r="K11">
-        <v>1.036255140351085</v>
+        <v>1.013712499383987</v>
       </c>
       <c r="L11">
-        <v>1.027022049420865</v>
+        <v>0.9985953232089333</v>
       </c>
       <c r="M11">
-        <v>1.043883613887384</v>
+        <v>1.010121448575191</v>
       </c>
       <c r="N11">
-        <v>1.030722930506113</v>
+        <v>1.003628078856162</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022355174565809</v>
+        <v>0.9702720886736143</v>
       </c>
       <c r="D12">
-        <v>1.032479362306036</v>
+        <v>0.9977486625390175</v>
       </c>
       <c r="E12">
-        <v>1.023198007342126</v>
+        <v>0.9823053379852195</v>
       </c>
       <c r="F12">
-        <v>1.040078807510529</v>
+        <v>0.993830662310811</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031009800567883</v>
+        <v>1.035519336837015</v>
       </c>
       <c r="J12">
-        <v>1.029102107770846</v>
+        <v>1.001390139179387</v>
       </c>
       <c r="K12">
-        <v>1.03610471711644</v>
+        <v>1.01291912209935</v>
       </c>
       <c r="L12">
-        <v>1.026858849780024</v>
+        <v>0.9977795770691935</v>
       </c>
       <c r="M12">
-        <v>1.043675627734158</v>
+        <v>1.009077019294939</v>
       </c>
       <c r="N12">
-        <v>1.030563550803542</v>
+        <v>1.002812228038077</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.022408231536705</v>
+        <v>0.9705578849013292</v>
       </c>
       <c r="D13">
-        <v>1.032521469472932</v>
+        <v>0.9979676963011469</v>
       </c>
       <c r="E13">
-        <v>1.023242965356087</v>
+        <v>0.9825304680924793</v>
       </c>
       <c r="F13">
-        <v>1.040133219495071</v>
+        <v>0.9941050265470904</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031018977258023</v>
+        <v>1.035589341684812</v>
       </c>
       <c r="J13">
-        <v>1.029136248053613</v>
+        <v>1.001565357018791</v>
       </c>
       <c r="K13">
-        <v>1.03613698761463</v>
+        <v>1.013089770720283</v>
       </c>
       <c r="L13">
-        <v>1.026893855839524</v>
+        <v>0.9979550002195283</v>
       </c>
       <c r="M13">
-        <v>1.043720241088795</v>
+        <v>1.00930162633661</v>
       </c>
       <c r="N13">
-        <v>1.030597739569426</v>
+        <v>1.00298769470691</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022582089670946</v>
+        <v>0.9714914554617218</v>
       </c>
       <c r="D14">
-        <v>1.03265944168147</v>
+        <v>0.9986833371480678</v>
       </c>
       <c r="E14">
-        <v>1.02339029732959</v>
+        <v>0.9832661529765996</v>
       </c>
       <c r="F14">
-        <v>1.040311525114887</v>
+        <v>0.9950014789278669</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031049003227361</v>
+        <v>1.035817709869906</v>
       </c>
       <c r="J14">
-        <v>1.029248106340059</v>
+        <v>1.002137698224473</v>
       </c>
       <c r="K14">
-        <v>1.036242708215676</v>
+        <v>1.013647128112167</v>
       </c>
       <c r="L14">
-        <v>1.027008558920127</v>
+        <v>0.998528092240957</v>
       </c>
       <c r="M14">
-        <v>1.043866421516303</v>
+        <v>1.010035373229549</v>
       </c>
       <c r="N14">
-        <v>1.03070975670747</v>
+        <v>1.003560848702752</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022689219373545</v>
+        <v>0.9720644863451972</v>
       </c>
       <c r="D15">
-        <v>1.032744454684167</v>
+        <v>0.9991227173668673</v>
       </c>
       <c r="E15">
-        <v>1.023481091546951</v>
+        <v>0.9837179360029453</v>
       </c>
       <c r="F15">
-        <v>1.040421400932074</v>
+        <v>0.9955518971625879</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031067470959316</v>
+        <v>1.03595764775272</v>
       </c>
       <c r="J15">
-        <v>1.02931702217299</v>
+        <v>1.00248898933411</v>
       </c>
       <c r="K15">
-        <v>1.036307833845323</v>
+        <v>1.013989177206079</v>
       </c>
       <c r="L15">
-        <v>1.027079233655797</v>
+        <v>0.9988799053877921</v>
       </c>
       <c r="M15">
-        <v>1.043956489205776</v>
+        <v>1.010485791388489</v>
       </c>
       <c r="N15">
-        <v>1.030778770408788</v>
+        <v>1.003912638686059</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023312912497616</v>
+        <v>0.9753673168514577</v>
       </c>
       <c r="D16">
-        <v>1.03323932393831</v>
+        <v>1.001656894992644</v>
       </c>
       <c r="E16">
-        <v>1.024009829190087</v>
+        <v>0.9863251237345675</v>
       </c>
       <c r="F16">
-        <v>1.041061166937448</v>
+        <v>0.9987269238891651</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031174468294261</v>
+        <v>1.036760598432071</v>
       </c>
       <c r="J16">
-        <v>1.029718084408553</v>
+        <v>1.004513484522235</v>
       </c>
       <c r="K16">
-        <v>1.036686704472184</v>
+        <v>1.015959708002064</v>
       </c>
       <c r="L16">
-        <v>1.027490627017466</v>
+        <v>1.000908332812703</v>
       </c>
       <c r="M16">
-        <v>1.04448073836509</v>
+        <v>1.013082456766212</v>
       </c>
       <c r="N16">
-        <v>1.031180402198729</v>
+        <v>1.005940008889564</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02370427228989</v>
+        <v>0.977411266089415</v>
       </c>
       <c r="D17">
-        <v>1.033549791600275</v>
+        <v>1.003226562537232</v>
       </c>
       <c r="E17">
-        <v>1.024341734722878</v>
+        <v>0.9879413226708865</v>
       </c>
       <c r="F17">
-        <v>1.041462687100872</v>
+        <v>1.000693943033746</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031241150507962</v>
+        <v>1.03725427365676</v>
       </c>
       <c r="J17">
-        <v>1.029969608851361</v>
+        <v>1.00576605251387</v>
       </c>
       <c r="K17">
-        <v>1.036924193239124</v>
+        <v>1.01717825395549</v>
       </c>
       <c r="L17">
-        <v>1.02774871422885</v>
+        <v>1.002164140156746</v>
       </c>
       <c r="M17">
-        <v>1.044809599739464</v>
+        <v>1.014689815845538</v>
       </c>
       <c r="N17">
-        <v>1.031432283835095</v>
+        <v>1.007194355671418</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023932593869946</v>
+        <v>0.9785937285217378</v>
       </c>
       <c r="D18">
-        <v>1.033730899566243</v>
+        <v>1.004135117065528</v>
       </c>
       <c r="E18">
-        <v>1.024535416653681</v>
+        <v>0.9888772871380661</v>
       </c>
       <c r="F18">
-        <v>1.041696963113108</v>
+        <v>1.001832654846876</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031279888445225</v>
+        <v>1.037538692023435</v>
       </c>
       <c r="J18">
-        <v>1.030116300123304</v>
+        <v>1.00649056532686</v>
       </c>
       <c r="K18">
-        <v>1.037062656087707</v>
+        <v>1.017882852717921</v>
       </c>
       <c r="L18">
-        <v>1.027899263094074</v>
+        <v>1.002890815424512</v>
       </c>
       <c r="M18">
-        <v>1.045001423720517</v>
+        <v>1.015619829086688</v>
       </c>
       <c r="N18">
-        <v>1.03157918342547</v>
+        <v>1.007919897375705</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024010453766131</v>
+        <v>0.9789952925076105</v>
       </c>
       <c r="D19">
-        <v>1.033792655628903</v>
+        <v>1.004443739403016</v>
       </c>
       <c r="E19">
-        <v>1.024601471923439</v>
+        <v>0.9891953015829803</v>
       </c>
       <c r="F19">
-        <v>1.041776858061923</v>
+        <v>1.00221948706134</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031293070495236</v>
+        <v>1.037635078135682</v>
       </c>
       <c r="J19">
-        <v>1.030166314869597</v>
+        <v>1.006736587552247</v>
       </c>
       <c r="K19">
-        <v>1.037109858085856</v>
+        <v>1.018122072259141</v>
       </c>
       <c r="L19">
-        <v>1.02795059820505</v>
+        <v>1.003137620793953</v>
       </c>
       <c r="M19">
-        <v>1.045066831516112</v>
+        <v>1.015935680553518</v>
       </c>
       <c r="N19">
-        <v>1.03162926919844</v>
+        <v>1.008166268980872</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02366227811713</v>
+        <v>0.9771929833836794</v>
       </c>
       <c r="D20">
-        <v>1.033516479548161</v>
+        <v>1.00305888081638</v>
       </c>
       <c r="E20">
-        <v>1.024306115389653</v>
+        <v>0.9877686208488013</v>
       </c>
       <c r="F20">
-        <v>1.041419599910744</v>
+        <v>1.000483797210902</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031234012339825</v>
+        <v>1.037201674013929</v>
       </c>
       <c r="J20">
-        <v>1.029942624586865</v>
+        <v>1.005632297189079</v>
       </c>
       <c r="K20">
-        <v>1.036898719177115</v>
+        <v>1.017048155899946</v>
       </c>
       <c r="L20">
-        <v>1.027721022774827</v>
+        <v>1.002030008922431</v>
       </c>
       <c r="M20">
-        <v>1.044774315534124</v>
+        <v>1.014518144959186</v>
       </c>
       <c r="N20">
-        <v>1.031405261249849</v>
+        <v>1.007060410398725</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022530890706547</v>
+        <v>0.971216996588419</v>
       </c>
       <c r="D21">
-        <v>1.032618811517477</v>
+        <v>0.9984729227150567</v>
       </c>
       <c r="E21">
-        <v>1.023346907957807</v>
+        <v>0.9830498250566487</v>
       </c>
       <c r="F21">
-        <v>1.040259015252734</v>
+        <v>0.9947378965974697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031040168047336</v>
+        <v>1.035750621384899</v>
       </c>
       <c r="J21">
-        <v>1.029215167642655</v>
+        <v>1.001969439631162</v>
       </c>
       <c r="K21">
-        <v>1.036211578699332</v>
+        <v>1.013483283913332</v>
       </c>
       <c r="L21">
-        <v>1.026974781224327</v>
+        <v>0.9983596001357878</v>
       </c>
       <c r="M21">
-        <v>1.043823374792607</v>
+        <v>1.009819651655681</v>
       </c>
       <c r="N21">
-        <v>1.030676771233337</v>
+        <v>1.00339235116294</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021819977504146</v>
+        <v>0.9673655305574562</v>
       </c>
       <c r="D22">
-        <v>1.032054575860991</v>
+        <v>0.9955223572470179</v>
       </c>
       <c r="E22">
-        <v>1.022744606836845</v>
+        <v>0.9800180652648246</v>
       </c>
       <c r="F22">
-        <v>1.039530000585918</v>
+        <v>0.9910422035947237</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030916881643481</v>
+        <v>1.034804958205403</v>
       </c>
       <c r="J22">
-        <v>1.028757622408988</v>
+        <v>0.9996080464564248</v>
       </c>
       <c r="K22">
-        <v>1.03577900762411</v>
+        <v>1.011183042063502</v>
       </c>
       <c r="L22">
-        <v>1.026505692994717</v>
+        <v>0.9959960402075497</v>
       </c>
       <c r="M22">
-        <v>1.043225528177851</v>
+        <v>1.006793229619851</v>
       </c>
       <c r="N22">
-        <v>1.030218576232957</v>
+        <v>1.001027604539038</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.022196804704844</v>
+        <v>0.9694165118890753</v>
       </c>
       <c r="D23">
-        <v>1.032353671995052</v>
+        <v>0.9970930830597415</v>
       </c>
       <c r="E23">
-        <v>1.023063822798912</v>
+        <v>0.981631618178203</v>
       </c>
       <c r="F23">
-        <v>1.039916399293734</v>
+        <v>0.9930095021646096</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030982371509366</v>
+        <v>1.035309506856189</v>
       </c>
       <c r="J23">
-        <v>1.029000191157304</v>
+        <v>1.000865582280708</v>
       </c>
       <c r="K23">
-        <v>1.036008372547595</v>
+        <v>1.012408194926724</v>
       </c>
       <c r="L23">
-        <v>1.026754355506543</v>
+        <v>0.9972544737927835</v>
       </c>
       <c r="M23">
-        <v>1.043542453218985</v>
+        <v>1.008404670375574</v>
       </c>
       <c r="N23">
-        <v>1.030461489456719</v>
+        <v>1.002286926208434</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023681253327695</v>
+        <v>0.9772916459705968</v>
       </c>
       <c r="D24">
-        <v>1.033531531776809</v>
+        <v>1.003134670576431</v>
       </c>
       <c r="E24">
-        <v>1.024322209964213</v>
+        <v>0.9878466781443421</v>
       </c>
       <c r="F24">
-        <v>1.041439068922184</v>
+        <v>1.000578779636052</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031237238254848</v>
+        <v>1.037225452433981</v>
       </c>
       <c r="J24">
-        <v>1.029954817672193</v>
+        <v>1.005692754242291</v>
       </c>
       <c r="K24">
-        <v>1.036910229995656</v>
+        <v>1.017106960607412</v>
       </c>
       <c r="L24">
-        <v>1.027733535317093</v>
+        <v>1.00209063499067</v>
       </c>
       <c r="M24">
-        <v>1.044790258933198</v>
+        <v>1.014595738873393</v>
       </c>
       <c r="N24">
-        <v>1.031417471650756</v>
+        <v>1.007120953307887</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025405756409111</v>
+        <v>0.9860509712886709</v>
       </c>
       <c r="D25">
-        <v>1.034899052654435</v>
+        <v>1.009872502741989</v>
       </c>
       <c r="E25">
-        <v>1.02578590955212</v>
+        <v>0.9947964075296676</v>
       </c>
       <c r="F25">
-        <v>1.043209024381091</v>
+        <v>1.009026761547448</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.031526849678984</v>
+        <v>1.039310799411656</v>
       </c>
       <c r="J25">
-        <v>1.03106187362352</v>
+        <v>1.011057070831678</v>
       </c>
       <c r="K25">
-        <v>1.037954416053965</v>
+        <v>1.022319469860516</v>
       </c>
       <c r="L25">
-        <v>1.028870246463974</v>
+        <v>1.007476043252195</v>
       </c>
       <c r="M25">
-        <v>1.046238449816381</v>
+        <v>1.021486546350241</v>
       </c>
       <c r="N25">
-        <v>1.032526099748516</v>
+        <v>1.012492887842126</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9927617007729196</v>
+        <v>0.9936216411451593</v>
       </c>
       <c r="D2">
-        <v>1.01504572062901</v>
+        <v>1.017005344612215</v>
       </c>
       <c r="E2">
-        <v>1.000147637506901</v>
+        <v>1.000839489677268</v>
       </c>
       <c r="F2">
-        <v>1.015519672627024</v>
+        <v>1.027096330960238</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040869841861966</v>
+        <v>1.046001613091341</v>
       </c>
       <c r="J2">
-        <v>1.015161084744078</v>
+        <v>1.015994816010034</v>
       </c>
       <c r="K2">
-        <v>1.026299349842882</v>
+        <v>1.028232744487811</v>
       </c>
       <c r="L2">
-        <v>1.011604915887204</v>
+        <v>1.012287141451665</v>
       </c>
       <c r="M2">
-        <v>1.026766946388798</v>
+        <v>1.038190649132793</v>
       </c>
       <c r="N2">
-        <v>1.016602729925012</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008982391061318</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.038797725487765</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031033139769969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9974878929811463</v>
+        <v>0.9982502827406314</v>
       </c>
       <c r="D3">
-        <v>1.018694141171974</v>
+        <v>1.020058750254555</v>
       </c>
       <c r="E3">
-        <v>1.003930741447545</v>
+        <v>1.004546438151126</v>
       </c>
       <c r="F3">
-        <v>1.020103380586615</v>
+        <v>1.030202781119081</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041944555360566</v>
+        <v>1.047161922067023</v>
       </c>
       <c r="J3">
-        <v>1.018047275624804</v>
+        <v>1.018788760730133</v>
       </c>
       <c r="K3">
-        <v>1.029093286557793</v>
+        <v>1.030441250811499</v>
       </c>
       <c r="L3">
-        <v>1.014513573554451</v>
+        <v>1.015121475100196</v>
       </c>
       <c r="M3">
-        <v>1.030485337699379</v>
+        <v>1.040463263287233</v>
       </c>
       <c r="N3">
-        <v>1.019493019527846</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.009951496053992</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040596349224447</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032592088743072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000482391902397</v>
+        <v>1.00118316102882</v>
       </c>
       <c r="D4">
-        <v>1.02100767131942</v>
+        <v>1.021995859422797</v>
       </c>
       <c r="E4">
-        <v>1.006333998053661</v>
+        <v>1.006901460066028</v>
       </c>
       <c r="F4">
-        <v>1.023012335275403</v>
+        <v>1.032173204767986</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042614410812988</v>
+        <v>1.047882363371809</v>
       </c>
       <c r="J4">
-        <v>1.019873766090084</v>
+        <v>1.02055664977297</v>
       </c>
       <c r="K4">
-        <v>1.030858995130917</v>
+        <v>1.031835868544431</v>
       </c>
       <c r="L4">
-        <v>1.016356573705501</v>
+        <v>1.016917298102257</v>
       </c>
       <c r="M4">
-        <v>1.032840733950839</v>
+        <v>1.041898235684846</v>
       </c>
       <c r="N4">
-        <v>1.021322103819088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.010564441756962</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041732032620129</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033579127234119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.001726605748279</v>
+        <v>1.002406611958644</v>
       </c>
       <c r="D5">
-        <v>1.021969337532815</v>
+        <v>1.022806462319707</v>
       </c>
       <c r="E5">
-        <v>1.007334011425935</v>
+        <v>1.007886003477202</v>
       </c>
       <c r="F5">
-        <v>1.02422209646445</v>
+        <v>1.032993093220242</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.042890032349606</v>
+        <v>1.048180675198573</v>
       </c>
       <c r="J5">
-        <v>1.020632109093346</v>
+        <v>1.02129528962834</v>
       </c>
       <c r="K5">
-        <v>1.031591510439722</v>
+        <v>1.032419309354853</v>
       </c>
       <c r="L5">
-        <v>1.017122319691423</v>
+        <v>1.017667937580322</v>
       </c>
       <c r="M5">
-        <v>1.03381921548456</v>
+        <v>1.04249394380822</v>
       </c>
       <c r="N5">
-        <v>1.022081523756398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.010821376796478</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042203494701254</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.0339989059646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.001934670222318</v>
+        <v>1.00261705753725</v>
       </c>
       <c r="D6">
-        <v>1.02213017424277</v>
+        <v>1.022948385323663</v>
       </c>
       <c r="E6">
-        <v>1.007501323770516</v>
+        <v>1.008056300198333</v>
       </c>
       <c r="F6">
-        <v>1.024424462439979</v>
+        <v>1.033131123607841</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.042935963135222</v>
+        <v>1.048233461284386</v>
       </c>
       <c r="J6">
-        <v>1.02075888928756</v>
+        <v>1.02142448068803</v>
       </c>
       <c r="K6">
-        <v>1.031713937512678</v>
+        <v>1.032523075801221</v>
       </c>
       <c r="L6">
-        <v>1.017250369715836</v>
+        <v>1.017798967737284</v>
       </c>
       <c r="M6">
-        <v>1.033982830387735</v>
+        <v>1.042594376865003</v>
       </c>
       <c r="N6">
-        <v>1.022208483993029</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.010867417345308</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.04228298054023</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.034081093751058</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000499074075318</v>
+        <v>1.001215334699064</v>
       </c>
       <c r="D7">
-        <v>1.021020563670052</v>
+        <v>1.022023750119116</v>
       </c>
       <c r="E7">
-        <v>1.00634740032882</v>
+        <v>1.006929692780099</v>
       </c>
       <c r="F7">
-        <v>1.02302855126152</v>
+        <v>1.032186620142747</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.042618117030336</v>
+        <v>1.047894733824321</v>
       </c>
       <c r="J7">
-        <v>1.019883936078463</v>
+        <v>1.0205819237735</v>
       </c>
       <c r="K7">
-        <v>1.030868821107622</v>
+        <v>1.031860525541087</v>
       </c>
       <c r="L7">
-        <v>1.01636684080886</v>
+        <v>1.016942222233269</v>
       </c>
       <c r="M7">
-        <v>1.032853854034067</v>
+        <v>1.041908624907963</v>
       </c>
       <c r="N7">
-        <v>1.021332288250017</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.010576255926819</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041740254979579</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033616841807224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9943724728730194</v>
+        <v>0.9952189995884396</v>
       </c>
       <c r="D8">
-        <v>1.01628873067353</v>
+        <v>1.018066621958641</v>
       </c>
       <c r="E8">
-        <v>1.001435636405473</v>
+        <v>1.00212057044565</v>
       </c>
       <c r="F8">
-        <v>1.017080862657844</v>
+        <v>1.028157594889566</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04123841990998</v>
+        <v>1.046410509641525</v>
       </c>
       <c r="J8">
-        <v>1.016145186728715</v>
+        <v>1.016966803386699</v>
       </c>
       <c r="K8">
-        <v>1.027252490124597</v>
+        <v>1.029007306419326</v>
       </c>
       <c r="L8">
-        <v>1.012596196138535</v>
+        <v>1.013271893673674</v>
       </c>
       <c r="M8">
-        <v>1.028034328670483</v>
+        <v>1.038969197342161</v>
       </c>
       <c r="N8">
-        <v>1.017588229447351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009323593340326</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039413895390223</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031603962213947</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9830619308987689</v>
+        <v>0.9841250018128148</v>
       </c>
       <c r="D9">
-        <v>1.007571304739862</v>
+        <v>1.010756842758202</v>
       </c>
       <c r="E9">
-        <v>0.992420459469012</v>
+        <v>0.9932704991879386</v>
       </c>
       <c r="F9">
-        <v>1.006140538841978</v>
+        <v>1.020737202001775</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038605157724571</v>
+        <v>1.043542210781211</v>
       </c>
       <c r="J9">
-        <v>1.009227328766668</v>
+        <v>1.010251076548306</v>
       </c>
       <c r="K9">
-        <v>1.020542725651536</v>
+        <v>1.023677775598041</v>
       </c>
       <c r="L9">
-        <v>1.005637718208378</v>
+        <v>1.006473709650201</v>
       </c>
       <c r="M9">
-        <v>1.019134769545311</v>
+        <v>1.033502559291256</v>
       </c>
       <c r="N9">
-        <v>1.01066054733351</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006989470083581</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.035087398263227</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.02783232904942</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9751349925033933</v>
+        <v>0.9764088142320706</v>
       </c>
       <c r="D10">
-        <v>1.001478546260367</v>
+        <v>1.005710105997903</v>
       </c>
       <c r="E10">
-        <v>0.9861415525853059</v>
+        <v>0.9871651714607167</v>
       </c>
       <c r="F10">
-        <v>0.9985034483484369</v>
+        <v>1.01611448249184</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03670432536356</v>
+        <v>1.041561241282938</v>
       </c>
       <c r="J10">
-        <v>1.00437109688011</v>
+        <v>1.005590731417445</v>
       </c>
       <c r="K10">
-        <v>1.015821156314364</v>
+        <v>1.019977022432902</v>
       </c>
       <c r="L10">
-        <v>1.000765616421618</v>
+        <v>1.001770095083243</v>
       </c>
       <c r="M10">
-        <v>1.012899776172205</v>
+        <v>1.030198755375384</v>
       </c>
       <c r="N10">
-        <v>1.005797419040654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005385909445618</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032524446999339</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.02523262079354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9716009651720379</v>
+        <v>0.9733178332133764</v>
       </c>
       <c r="D11">
-        <v>0.9987672986185911</v>
+        <v>1.003790260696581</v>
       </c>
       <c r="E11">
-        <v>0.9833524788017206</v>
+        <v>0.9848167003819817</v>
       </c>
       <c r="F11">
-        <v>0.9951066571867778</v>
+        <v>1.018337689995403</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035844466826149</v>
+        <v>1.041378339985611</v>
       </c>
       <c r="J11">
-        <v>1.002204833038746</v>
+        <v>1.003844348093829</v>
       </c>
       <c r="K11">
-        <v>1.013712499383987</v>
+        <v>1.018641050493252</v>
       </c>
       <c r="L11">
-        <v>0.9985953232089333</v>
+        <v>1.000030746530198</v>
       </c>
       <c r="M11">
-        <v>1.010121448575191</v>
+        <v>1.032921876494546</v>
       </c>
       <c r="N11">
-        <v>1.003628078856162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.004921313501842</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.035117406319011</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.024321313051671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9702720886736143</v>
+        <v>0.9721468761082185</v>
       </c>
       <c r="D12">
-        <v>0.9977486625390175</v>
+        <v>1.003033553061483</v>
       </c>
       <c r="E12">
-        <v>0.9823053379852195</v>
+        <v>0.983951355075571</v>
       </c>
       <c r="F12">
-        <v>0.993830662310811</v>
+        <v>1.020474834795848</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035519336837015</v>
+        <v>1.041417170088891</v>
       </c>
       <c r="J12">
-        <v>1.001390139179387</v>
+        <v>1.003178666310109</v>
       </c>
       <c r="K12">
-        <v>1.01291912209935</v>
+        <v>1.018102864843293</v>
       </c>
       <c r="L12">
-        <v>0.9977795770691935</v>
+        <v>0.9993926188083595</v>
       </c>
       <c r="M12">
-        <v>1.009077019294939</v>
+        <v>1.035220008226544</v>
       </c>
       <c r="N12">
-        <v>1.002812228038077</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.004797285990817</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.037262104918183</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.023940787833824</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9705578849013292</v>
+        <v>0.9724080538378184</v>
       </c>
       <c r="D13">
-        <v>0.9979676963011469</v>
+        <v>1.003153588388896</v>
       </c>
       <c r="E13">
-        <v>0.9825304680924793</v>
+        <v>0.9841958085774162</v>
       </c>
       <c r="F13">
-        <v>0.9941050265470904</v>
+        <v>1.022729049921646</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035589341684812</v>
+        <v>1.041654738647158</v>
       </c>
       <c r="J13">
-        <v>1.001565357018791</v>
+        <v>1.003330780746652</v>
       </c>
       <c r="K13">
-        <v>1.013089770720283</v>
+        <v>1.018176787230691</v>
       </c>
       <c r="L13">
-        <v>0.9979550002195283</v>
+        <v>0.9995871118253076</v>
       </c>
       <c r="M13">
-        <v>1.00930162633661</v>
+        <v>1.037390761426991</v>
       </c>
       <c r="N13">
-        <v>1.00298769470691</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004941568385838</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039255238746685</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.023990524701671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9714914554617218</v>
+        <v>0.9732302217168221</v>
       </c>
       <c r="D14">
-        <v>0.9986833371480678</v>
+        <v>1.003624019248693</v>
       </c>
       <c r="E14">
-        <v>0.9832661529765996</v>
+        <v>0.9848610994560323</v>
       </c>
       <c r="F14">
-        <v>0.9950014789278669</v>
+        <v>1.024300508808308</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035817709869906</v>
+        <v>1.041891724855157</v>
       </c>
       <c r="J14">
-        <v>1.002137698224473</v>
+        <v>1.003797989259542</v>
       </c>
       <c r="K14">
-        <v>1.013647128112167</v>
+        <v>1.018494793574074</v>
       </c>
       <c r="L14">
-        <v>0.998528092240957</v>
+        <v>1.000091626225512</v>
       </c>
       <c r="M14">
-        <v>1.010035373229549</v>
+        <v>1.038794644123139</v>
       </c>
       <c r="N14">
-        <v>1.003560848702752</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005160559750337</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040538240592617</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.024216818002713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9720644863451972</v>
+        <v>0.9737614135122072</v>
       </c>
       <c r="D15">
-        <v>0.9991227173668673</v>
+        <v>1.00395326805531</v>
       </c>
       <c r="E15">
-        <v>0.9837179360029453</v>
+        <v>0.9852826114699716</v>
       </c>
       <c r="F15">
-        <v>0.9955518971625879</v>
+        <v>1.024803365770229</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03595764775272</v>
+        <v>1.04202225933814</v>
       </c>
       <c r="J15">
-        <v>1.00248898933411</v>
+        <v>1.004110029653772</v>
       </c>
       <c r="K15">
-        <v>1.013989177206079</v>
+        <v>1.018729499280168</v>
       </c>
       <c r="L15">
-        <v>0.9988799053877921</v>
+        <v>1.000414012728045</v>
       </c>
       <c r="M15">
-        <v>1.010485791388489</v>
+        <v>1.039202793489855</v>
       </c>
       <c r="N15">
-        <v>1.003912638686059</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.00528074337041</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040898355779723</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.024388726145516</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9753673168514577</v>
+        <v>0.9769908182053417</v>
       </c>
       <c r="D16">
-        <v>1.001656894992644</v>
+        <v>1.006079279261943</v>
       </c>
       <c r="E16">
-        <v>0.9863251237345675</v>
+        <v>0.9878210469873444</v>
       </c>
       <c r="F16">
-        <v>0.9987269238891651</v>
+        <v>1.026344818113038</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036760598432071</v>
+        <v>1.04283455944573</v>
       </c>
       <c r="J16">
-        <v>1.004513484522235</v>
+        <v>1.006068228026128</v>
       </c>
       <c r="K16">
-        <v>1.015959708002064</v>
+        <v>1.020303273351644</v>
       </c>
       <c r="L16">
-        <v>1.000908332812703</v>
+        <v>1.002376397934452</v>
       </c>
       <c r="M16">
-        <v>1.013082456766212</v>
+        <v>1.040218830230417</v>
       </c>
       <c r="N16">
-        <v>1.005940008889564</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005936240283089</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.041662738374626</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.025504677926983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.977411266089415</v>
+        <v>0.9790475004572761</v>
       </c>
       <c r="D17">
-        <v>1.003226562537232</v>
+        <v>1.007476100948854</v>
       </c>
       <c r="E17">
-        <v>0.9879413226708865</v>
+        <v>0.9894312151046095</v>
       </c>
       <c r="F17">
-        <v>1.000693943033746</v>
+        <v>1.026731562417297</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03725427365676</v>
+        <v>1.043345310300209</v>
       </c>
       <c r="J17">
-        <v>1.00576605251387</v>
+        <v>1.007335365167186</v>
       </c>
       <c r="K17">
-        <v>1.01717825395549</v>
+        <v>1.02135430462972</v>
       </c>
       <c r="L17">
-        <v>1.002164140156746</v>
+        <v>1.003627126278477</v>
       </c>
       <c r="M17">
-        <v>1.014689815845538</v>
+        <v>1.040286580627068</v>
       </c>
       <c r="N17">
-        <v>1.007194355671418</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006327986823135</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.041587317662181</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026250431737909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9785937285217378</v>
+        <v>0.9802424268256641</v>
       </c>
       <c r="D18">
-        <v>1.004135117065528</v>
+        <v>1.008312479730646</v>
       </c>
       <c r="E18">
-        <v>0.9888772871380661</v>
+        <v>0.9903465254453357</v>
       </c>
       <c r="F18">
-        <v>1.001832654846876</v>
+        <v>1.025842512939042</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037538692023435</v>
+        <v>1.043555629589452</v>
       </c>
       <c r="J18">
-        <v>1.00649056532686</v>
+        <v>1.008073206981241</v>
       </c>
       <c r="K18">
-        <v>1.017882852717921</v>
+        <v>1.02198925515131</v>
       </c>
       <c r="L18">
-        <v>1.002890815424512</v>
+        <v>1.004333997257991</v>
       </c>
       <c r="M18">
-        <v>1.015619829086688</v>
+        <v>1.039229597788572</v>
       </c>
       <c r="N18">
-        <v>1.007919897375705</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006505506996747</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040514033917161</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.02668757897949</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9789952925076105</v>
+        <v>0.9805757275854552</v>
       </c>
       <c r="D19">
-        <v>1.004443739403016</v>
+        <v>1.008547939991651</v>
       </c>
       <c r="E19">
-        <v>0.9891953015829803</v>
+        <v>0.990563908996952</v>
       </c>
       <c r="F19">
-        <v>1.00221948706134</v>
+        <v>1.023524239913995</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037635078135682</v>
+        <v>1.043376483282228</v>
       </c>
       <c r="J19">
-        <v>1.006736587552247</v>
+        <v>1.008254140332381</v>
       </c>
       <c r="K19">
-        <v>1.018122072259141</v>
+        <v>1.022156977432621</v>
       </c>
       <c r="L19">
-        <v>1.003137620793953</v>
+        <v>1.004482104048995</v>
       </c>
       <c r="M19">
-        <v>1.015935680553518</v>
+        <v>1.036886469002739</v>
       </c>
       <c r="N19">
-        <v>1.008166268980872</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.00647106436371</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.03833529032802</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026812643665951</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9771929833836794</v>
+        <v>0.9784557196740948</v>
       </c>
       <c r="D20">
-        <v>1.00305888081638</v>
+        <v>1.007063774680615</v>
       </c>
       <c r="E20">
-        <v>0.9877686208488013</v>
+        <v>0.9887895526735848</v>
       </c>
       <c r="F20">
-        <v>1.000483797210902</v>
+        <v>1.017341841408935</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037201674013929</v>
+        <v>1.042105783902641</v>
       </c>
       <c r="J20">
-        <v>1.005632297189079</v>
+        <v>1.00684316482247</v>
       </c>
       <c r="K20">
-        <v>1.017048155899946</v>
+        <v>1.020983543003305</v>
       </c>
       <c r="L20">
-        <v>1.002030008922431</v>
+        <v>1.003032430752286</v>
       </c>
       <c r="M20">
-        <v>1.014518144959186</v>
+        <v>1.031086458803559</v>
       </c>
       <c r="N20">
-        <v>1.007060410398725</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005826922365142</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033216350617643</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.025986934207594</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.971216996588419</v>
+        <v>0.9725515319705614</v>
       </c>
       <c r="D21">
-        <v>0.9984729227150567</v>
+        <v>1.003181031952494</v>
       </c>
       <c r="E21">
-        <v>0.9830498250566487</v>
+        <v>0.9841140452452826</v>
       </c>
       <c r="F21">
-        <v>0.9947378965974697</v>
+        <v>1.013011498686344</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035750621384899</v>
+        <v>1.040428999164732</v>
       </c>
       <c r="J21">
-        <v>1.001969439631162</v>
+        <v>1.003243441819398</v>
       </c>
       <c r="K21">
-        <v>1.013483283913332</v>
+        <v>1.01810238828447</v>
       </c>
       <c r="L21">
-        <v>0.9983596001357878</v>
+        <v>0.9994027642711322</v>
       </c>
       <c r="M21">
-        <v>1.009819651655681</v>
+        <v>1.027750487173987</v>
       </c>
       <c r="N21">
-        <v>1.00339235116294</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00456209681097</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030534969577233</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.023953084167389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9673655305574562</v>
+        <v>0.9687554903308288</v>
       </c>
       <c r="D22">
-        <v>0.9955223572470179</v>
+        <v>1.000692299702668</v>
       </c>
       <c r="E22">
-        <v>0.9800180652648246</v>
+        <v>0.9811196287091615</v>
       </c>
       <c r="F22">
-        <v>0.9910422035947237</v>
+        <v>1.010504565930109</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034804958205403</v>
+        <v>1.039376167104879</v>
       </c>
       <c r="J22">
-        <v>0.9996080464564248</v>
+        <v>1.000931039101083</v>
       </c>
       <c r="K22">
-        <v>1.011183042063502</v>
+        <v>1.016250054464923</v>
       </c>
       <c r="L22">
-        <v>0.9959960402075497</v>
+        <v>0.9970746231700476</v>
       </c>
       <c r="M22">
-        <v>1.006793229619851</v>
+        <v>1.02587075859046</v>
       </c>
       <c r="N22">
-        <v>1.001027604539038</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.003753437923316</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.02904726789329</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.022629665514947</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9694165118890753</v>
+        <v>0.9707614524735119</v>
       </c>
       <c r="D23">
-        <v>0.9970930830597415</v>
+        <v>1.002001305973901</v>
       </c>
       <c r="E23">
-        <v>0.981631618178203</v>
+        <v>0.9826982854374919</v>
       </c>
       <c r="F23">
-        <v>0.9930095021646096</v>
+        <v>1.011836541376939</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035309506856189</v>
+        <v>1.039930459757898</v>
       </c>
       <c r="J23">
-        <v>1.000865582280708</v>
+        <v>1.002147751036618</v>
       </c>
       <c r="K23">
-        <v>1.012408194926724</v>
+        <v>1.01722132565345</v>
       </c>
       <c r="L23">
-        <v>0.9972544737927835</v>
+        <v>0.9982995004899698</v>
       </c>
       <c r="M23">
-        <v>1.008404670375574</v>
+        <v>1.026869637994554</v>
       </c>
       <c r="N23">
-        <v>1.002286926208434</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.004175435197942</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.029837826345152</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.023306631049065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9772916459705968</v>
+        <v>0.9784888511426614</v>
       </c>
       <c r="D24">
-        <v>1.003134670576431</v>
+        <v>1.007063861898026</v>
       </c>
       <c r="E24">
-        <v>0.9878466781443421</v>
+        <v>0.9888031008365677</v>
       </c>
       <c r="F24">
-        <v>1.000578779636052</v>
+        <v>1.016968370337858</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037225452433981</v>
+        <v>1.042041620242194</v>
       </c>
       <c r="J24">
-        <v>1.005692754242291</v>
+        <v>1.006840861444406</v>
       </c>
       <c r="K24">
-        <v>1.017106960607412</v>
+        <v>1.020968053491007</v>
       </c>
       <c r="L24">
-        <v>1.00209063499067</v>
+        <v>1.003029741797137</v>
       </c>
       <c r="M24">
-        <v>1.014595738873393</v>
+        <v>1.030703913951226</v>
       </c>
       <c r="N24">
-        <v>1.007120953307887</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005808671440312</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03287243784175</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.02594820868688</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9860509712886709</v>
+        <v>0.9870821660688148</v>
       </c>
       <c r="D25">
-        <v>1.009872502741989</v>
+        <v>1.012712268933863</v>
       </c>
       <c r="E25">
-        <v>0.9947964075296676</v>
+        <v>0.9956274237829775</v>
       </c>
       <c r="F25">
-        <v>1.009026761547448</v>
+        <v>1.022698945279065</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039310799411656</v>
+        <v>1.044326379303206</v>
       </c>
       <c r="J25">
-        <v>1.011057070831678</v>
+        <v>1.012052226972854</v>
       </c>
       <c r="K25">
-        <v>1.022319469860516</v>
+        <v>1.025116397188194</v>
       </c>
       <c r="L25">
-        <v>1.007476043252195</v>
+        <v>1.008293999734182</v>
       </c>
       <c r="M25">
-        <v>1.021486546350241</v>
+        <v>1.03495481977559</v>
       </c>
       <c r="N25">
-        <v>1.012492887842126</v>
+        <v>1.007621093268416</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03623677284864</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028878468663039</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_56/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9936216411451593</v>
+        <v>0.9944723557046783</v>
       </c>
       <c r="D2">
-        <v>1.017005344612215</v>
+        <v>1.017451975820407</v>
       </c>
       <c r="E2">
-        <v>1.000839489677268</v>
+        <v>1.001607909141745</v>
       </c>
       <c r="F2">
-        <v>1.027096330960238</v>
+        <v>1.027160632976487</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046001613091341</v>
+        <v>1.046220539627282</v>
       </c>
       <c r="J2">
-        <v>1.015994816010034</v>
+        <v>1.016819664087667</v>
       </c>
       <c r="K2">
-        <v>1.028232744487811</v>
+        <v>1.028673415342942</v>
       </c>
       <c r="L2">
-        <v>1.012287141451665</v>
+        <v>1.013044888596626</v>
       </c>
       <c r="M2">
-        <v>1.038190649132793</v>
+        <v>1.038254113623247</v>
       </c>
       <c r="N2">
-        <v>1.008982391061318</v>
+        <v>1.011504668070872</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.038797725487765</v>
+        <v>1.03884795349402</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031033139769969</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031353599132905</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019693287610065</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9982502827406314</v>
+        <v>0.9987927201886596</v>
       </c>
       <c r="D3">
-        <v>1.020058750254555</v>
+        <v>1.020187883324866</v>
       </c>
       <c r="E3">
-        <v>1.004546438151126</v>
+        <v>1.005043324531026</v>
       </c>
       <c r="F3">
-        <v>1.030202781119081</v>
+        <v>1.030221246317665</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047161922067023</v>
+        <v>1.047225272691763</v>
       </c>
       <c r="J3">
-        <v>1.018788760730133</v>
+        <v>1.019316351063423</v>
       </c>
       <c r="K3">
-        <v>1.030441250811499</v>
+        <v>1.030568811646322</v>
       </c>
       <c r="L3">
-        <v>1.015121475100196</v>
+        <v>1.015612079236507</v>
       </c>
       <c r="M3">
-        <v>1.040463263287233</v>
+        <v>1.040481509091163</v>
       </c>
       <c r="N3">
-        <v>1.009951496053992</v>
+        <v>1.012188222766158</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040596349224447</v>
+        <v>1.040610789552837</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032592088743072</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032690864445005</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020102063188968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00118316102882</v>
+        <v>1.00153305278063</v>
       </c>
       <c r="D4">
-        <v>1.021995859422797</v>
+        <v>1.021925477459256</v>
       </c>
       <c r="E4">
-        <v>1.006901460066028</v>
+        <v>1.007228530602986</v>
       </c>
       <c r="F4">
-        <v>1.032173204767986</v>
+        <v>1.032163182899362</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047882363371809</v>
+        <v>1.047847815962676</v>
       </c>
       <c r="J4">
-        <v>1.02055664977297</v>
+        <v>1.020897624042925</v>
       </c>
       <c r="K4">
-        <v>1.031835868544431</v>
+        <v>1.031766291556677</v>
       </c>
       <c r="L4">
-        <v>1.016917298102257</v>
+        <v>1.017240489523773</v>
       </c>
       <c r="M4">
-        <v>1.041898235684846</v>
+        <v>1.041888325665237</v>
       </c>
       <c r="N4">
-        <v>1.010564441756962</v>
+        <v>1.012621133965321</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041732032620129</v>
+        <v>1.041724189517389</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033579127234119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033538584444845</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020357770979378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002406611958644</v>
+        <v>1.002676559055615</v>
       </c>
       <c r="D5">
-        <v>1.022806462319707</v>
+        <v>1.022653123936844</v>
       </c>
       <c r="E5">
-        <v>1.007886003477202</v>
+        <v>1.008142465393606</v>
       </c>
       <c r="F5">
-        <v>1.032993093220242</v>
+        <v>1.032971296611552</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.048180675198573</v>
+        <v>1.048105390373007</v>
       </c>
       <c r="J5">
-        <v>1.02129528962834</v>
+        <v>1.021558565836636</v>
       </c>
       <c r="K5">
-        <v>1.032419309354853</v>
+        <v>1.032267677811589</v>
       </c>
       <c r="L5">
-        <v>1.017667937580322</v>
+        <v>1.017921440920291</v>
       </c>
       <c r="M5">
-        <v>1.04249394380822</v>
+        <v>1.042472383947683</v>
       </c>
       <c r="N5">
-        <v>1.010821376796478</v>
+        <v>1.012802701017951</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042203494701254</v>
+        <v>1.042186431557185</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.0339989059646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.033901050604478</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020464862659285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.00261705753725</v>
+        <v>1.002872978641511</v>
       </c>
       <c r="D6">
-        <v>1.022948385323663</v>
+        <v>1.022780665654356</v>
       </c>
       <c r="E6">
-        <v>1.008056300198333</v>
+        <v>1.008300301370259</v>
       </c>
       <c r="F6">
-        <v>1.033131123607841</v>
+        <v>1.033107289588434</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.048233461284386</v>
+        <v>1.048151112365106</v>
       </c>
       <c r="J6">
-        <v>1.02142448068803</v>
+        <v>1.02167411062197</v>
       </c>
       <c r="K6">
-        <v>1.032523075801221</v>
+        <v>1.032357214449056</v>
       </c>
       <c r="L6">
-        <v>1.017798967737284</v>
+        <v>1.018040167319648</v>
       </c>
       <c r="M6">
-        <v>1.042594376865003</v>
+        <v>1.042570800533176</v>
       </c>
       <c r="N6">
-        <v>1.010867417345308</v>
+        <v>1.012835201638171</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.04228298054023</v>
+        <v>1.042264321500102</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.034081093751058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033974043579136</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.02048473537955</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001215334699064</v>
+        <v>1.001574010449284</v>
       </c>
       <c r="D7">
-        <v>1.022023750119116</v>
+        <v>1.021958820046467</v>
       </c>
       <c r="E7">
-        <v>1.006929692780099</v>
+        <v>1.007264812120118</v>
       </c>
       <c r="F7">
-        <v>1.032186620142747</v>
+        <v>1.032177374804411</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047894733824321</v>
+        <v>1.04786286239316</v>
       </c>
       <c r="J7">
-        <v>1.0205819237735</v>
+        <v>1.020931462417266</v>
       </c>
       <c r="K7">
-        <v>1.031860525541087</v>
+        <v>1.031796337786574</v>
       </c>
       <c r="L7">
-        <v>1.016942222233269</v>
+        <v>1.017273368646503</v>
       </c>
       <c r="M7">
-        <v>1.041908624907963</v>
+        <v>1.041899482714399</v>
       </c>
       <c r="N7">
-        <v>1.010576255926819</v>
+        <v>1.012659209864526</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041740254979579</v>
+        <v>1.041733019558725</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033616841807224</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.033582104388906</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020367289494879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9952189995884396</v>
+        <v>0.9959978164518797</v>
       </c>
       <c r="D8">
-        <v>1.018066621958641</v>
+        <v>1.018427600864625</v>
       </c>
       <c r="E8">
-        <v>1.00212057044565</v>
+        <v>1.002827147894819</v>
       </c>
       <c r="F8">
-        <v>1.028157594889566</v>
+        <v>1.028209443678844</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046410509641525</v>
+        <v>1.046587501605008</v>
       </c>
       <c r="J8">
-        <v>1.016966803386699</v>
+        <v>1.017722753963884</v>
       </c>
       <c r="K8">
-        <v>1.029007306419326</v>
+        <v>1.029363612545923</v>
       </c>
       <c r="L8">
-        <v>1.013271893673674</v>
+        <v>1.01396895936922</v>
       </c>
       <c r="M8">
-        <v>1.038969197342161</v>
+        <v>1.0390203910563</v>
       </c>
       <c r="N8">
-        <v>1.009323593340326</v>
+        <v>1.011836111350596</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039413895390223</v>
+        <v>1.039454411842553</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031603962213947</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031867023458104</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019848399765934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9841250018128148</v>
+        <v>0.9856673923283878</v>
       </c>
       <c r="D9">
-        <v>1.010756842758202</v>
+        <v>1.011893770652697</v>
       </c>
       <c r="E9">
-        <v>0.9932704991879386</v>
+        <v>0.9946485643044968</v>
       </c>
       <c r="F9">
-        <v>1.020737202001775</v>
+        <v>1.020903290162541</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043542210781211</v>
+        <v>1.044098614151468</v>
       </c>
       <c r="J9">
-        <v>1.010251076548306</v>
+        <v>1.011736625725693</v>
       </c>
       <c r="K9">
-        <v>1.023677775598041</v>
+        <v>1.02479678265843</v>
       </c>
       <c r="L9">
-        <v>1.006473709650201</v>
+        <v>1.007829065640256</v>
       </c>
       <c r="M9">
-        <v>1.033502559291256</v>
+        <v>1.033666091286993</v>
       </c>
       <c r="N9">
-        <v>1.006989470083581</v>
+        <v>1.010205174822191</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.035087398263227</v>
+        <v>1.035216823843046</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.02783232904942</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028634430165082</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018847305576459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9764088142320706</v>
+        <v>0.9785456861147396</v>
       </c>
       <c r="D10">
-        <v>1.005710105997903</v>
+        <v>1.007427688031716</v>
       </c>
       <c r="E10">
-        <v>0.9871651714607167</v>
+        <v>0.9890648287506421</v>
       </c>
       <c r="F10">
-        <v>1.01611448249184</v>
+        <v>1.016367762414811</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041561241282938</v>
+        <v>1.042400632225537</v>
       </c>
       <c r="J10">
-        <v>1.005590731417445</v>
+        <v>1.007637153900126</v>
       </c>
       <c r="K10">
-        <v>1.019977022432902</v>
+        <v>1.021664115928292</v>
       </c>
       <c r="L10">
-        <v>1.001770095083243</v>
+        <v>1.003634368426096</v>
       </c>
       <c r="M10">
-        <v>1.030198755375384</v>
+        <v>1.030447649419468</v>
       </c>
       <c r="N10">
-        <v>1.005385909445618</v>
+        <v>1.009214365316658</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032524446999339</v>
+        <v>1.032721419674981</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.02523262079354</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026438093343144</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018160384607747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9733178332133764</v>
+        <v>0.9757134755434984</v>
       </c>
       <c r="D11">
-        <v>1.003790260696581</v>
+        <v>1.005753340189612</v>
       </c>
       <c r="E11">
-        <v>0.9848167003819817</v>
+        <v>0.9869314800099042</v>
       </c>
       <c r="F11">
-        <v>1.018337689995403</v>
+        <v>1.018621594195772</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041378339985611</v>
+        <v>1.04233562303217</v>
       </c>
       <c r="J11">
-        <v>1.003844348093829</v>
+        <v>1.006132706627894</v>
       </c>
       <c r="K11">
-        <v>1.018641050493252</v>
+        <v>1.02056756647749</v>
       </c>
       <c r="L11">
-        <v>1.000030746530198</v>
+        <v>1.002104130594569</v>
       </c>
       <c r="M11">
-        <v>1.032921876494546</v>
+        <v>1.033200676163952</v>
       </c>
       <c r="N11">
-        <v>1.004921313501842</v>
+        <v>1.00912596245466</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.035117406319011</v>
+        <v>1.035337933566554</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.024321313051671</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025699269645717</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.017981579913789</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9721468761082185</v>
+        <v>0.9746334348032779</v>
       </c>
       <c r="D12">
-        <v>1.003033553061483</v>
+        <v>1.005088113341116</v>
       </c>
       <c r="E12">
-        <v>0.983951355075571</v>
+        <v>0.9861345950463853</v>
       </c>
       <c r="F12">
-        <v>1.020474834795848</v>
+        <v>1.020767590835288</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041417170088891</v>
+        <v>1.042417830744207</v>
       </c>
       <c r="J12">
-        <v>1.003178666310109</v>
+        <v>1.005551550836048</v>
       </c>
       <c r="K12">
-        <v>1.018102864843293</v>
+        <v>1.020118478064392</v>
       </c>
       <c r="L12">
-        <v>0.9993926188083595</v>
+        <v>1.001532344247994</v>
       </c>
       <c r="M12">
-        <v>1.035220008226544</v>
+        <v>1.035507446491185</v>
       </c>
       <c r="N12">
-        <v>1.004797285990817</v>
+        <v>1.009135866603128</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.037262104918183</v>
+        <v>1.037489387971934</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.023940787833824</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.025381748784731</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017917920183094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9724080538378184</v>
+        <v>0.9748405882176335</v>
       </c>
       <c r="D13">
-        <v>1.003153588388896</v>
+        <v>1.005171928114147</v>
       </c>
       <c r="E13">
-        <v>0.9841958085774162</v>
+        <v>0.9863200777703054</v>
       </c>
       <c r="F13">
-        <v>1.022729049921646</v>
+        <v>1.023013051806842</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041654738647158</v>
+        <v>1.042637138236775</v>
       </c>
       <c r="J13">
-        <v>1.003330780746652</v>
+        <v>1.005652596903768</v>
       </c>
       <c r="K13">
-        <v>1.018176787230691</v>
+        <v>1.02015700507229</v>
       </c>
       <c r="L13">
-        <v>0.9995871118253076</v>
+        <v>1.001669208998458</v>
       </c>
       <c r="M13">
-        <v>1.037390761426991</v>
+        <v>1.037669651139566</v>
       </c>
       <c r="N13">
-        <v>1.004941568385838</v>
+        <v>1.009193531293504</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039255238746685</v>
+        <v>1.039475707039967</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.023990524701671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.025406218456841</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.017947190787603</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9732302217168221</v>
+        <v>0.975562823895969</v>
       </c>
       <c r="D14">
-        <v>1.003624019248693</v>
+        <v>1.005562436296883</v>
       </c>
       <c r="E14">
-        <v>0.9848610994560323</v>
+        <v>0.9868901748764132</v>
       </c>
       <c r="F14">
-        <v>1.024300508808308</v>
+        <v>1.024571224105857</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041891724855157</v>
+        <v>1.042835080543023</v>
       </c>
       <c r="J14">
-        <v>1.003797989259542</v>
+        <v>1.006025943784369</v>
       </c>
       <c r="K14">
-        <v>1.018494793574074</v>
+        <v>1.020397042363127</v>
       </c>
       <c r="L14">
-        <v>1.000091626225512</v>
+        <v>1.002080931497018</v>
       </c>
       <c r="M14">
-        <v>1.038794644123139</v>
+        <v>1.039060558918184</v>
       </c>
       <c r="N14">
-        <v>1.005160559750337</v>
+        <v>1.009255583527013</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040538240592617</v>
+        <v>1.040748423726329</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.024216818002713</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.025577516513951</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018007980427353</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9737614135122072</v>
+        <v>0.9760359855987497</v>
       </c>
       <c r="D15">
-        <v>1.00395326805531</v>
+        <v>1.005842073912899</v>
       </c>
       <c r="E15">
-        <v>0.9852826114699716</v>
+        <v>0.987259081953732</v>
       </c>
       <c r="F15">
-        <v>1.024803365770229</v>
+        <v>1.025066676531619</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04202225933814</v>
+        <v>1.042941516054697</v>
       </c>
       <c r="J15">
-        <v>1.004110029653772</v>
+        <v>1.006283474571374</v>
       </c>
       <c r="K15">
-        <v>1.018729499280168</v>
+        <v>1.020583331822843</v>
       </c>
       <c r="L15">
-        <v>1.000414012728045</v>
+        <v>1.002352051627638</v>
       </c>
       <c r="M15">
-        <v>1.039202793489855</v>
+        <v>1.039461472729457</v>
       </c>
       <c r="N15">
-        <v>1.00528074337041</v>
+        <v>1.009290118092044</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040898355779723</v>
+        <v>1.041102814473234</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.024388726145516</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.025715754491161</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018050105279223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9769908182053417</v>
+        <v>0.9789426700760355</v>
       </c>
       <c r="D16">
-        <v>1.006079279261943</v>
+        <v>1.007674006451747</v>
       </c>
       <c r="E16">
-        <v>0.9878210469873444</v>
+        <v>0.9895156607379697</v>
       </c>
       <c r="F16">
-        <v>1.026344818113038</v>
+        <v>1.026566785007964</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.04283455944573</v>
+        <v>1.043611205681944</v>
       </c>
       <c r="J16">
-        <v>1.006068228026128</v>
+        <v>1.007937845600402</v>
       </c>
       <c r="K16">
-        <v>1.020303273351644</v>
+        <v>1.021869798234598</v>
       </c>
       <c r="L16">
-        <v>1.002376397934452</v>
+        <v>1.00403958605988</v>
       </c>
       <c r="M16">
-        <v>1.040218830230417</v>
+        <v>1.040437062457045</v>
       </c>
       <c r="N16">
-        <v>1.005936240283089</v>
+        <v>1.009515505229339</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.041662738374626</v>
+        <v>1.041835232865663</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.025504677926983</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.026628850315414</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018328783349592</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9790475004572761</v>
+        <v>0.9808160120796174</v>
       </c>
       <c r="D17">
-        <v>1.007476100948854</v>
+        <v>1.00889425477459</v>
       </c>
       <c r="E17">
-        <v>0.9894312151046095</v>
+        <v>0.9909694593872369</v>
       </c>
       <c r="F17">
-        <v>1.026731562417297</v>
+        <v>1.026929472587235</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.043345310300209</v>
+        <v>1.044036368289481</v>
       </c>
       <c r="J17">
-        <v>1.007335365167186</v>
+        <v>1.009031901169638</v>
       </c>
       <c r="K17">
-        <v>1.02135430462972</v>
+        <v>1.02274811220802</v>
       </c>
       <c r="L17">
-        <v>1.003627126278477</v>
+        <v>1.005137701337655</v>
       </c>
       <c r="M17">
-        <v>1.040286580627068</v>
+        <v>1.040481249950598</v>
       </c>
       <c r="N17">
-        <v>1.006327986823135</v>
+        <v>1.009688851218969</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.041587317662181</v>
+        <v>1.041741202878301</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026250431737909</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027252721124622</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018514537148508</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9802424268256641</v>
+        <v>0.9819227288207364</v>
       </c>
       <c r="D18">
-        <v>1.008312479730646</v>
+        <v>1.009636352384289</v>
       </c>
       <c r="E18">
-        <v>0.9903465254453357</v>
+        <v>0.9918150742388145</v>
       </c>
       <c r="F18">
-        <v>1.025842512939042</v>
+        <v>1.02602875113979</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.043555629589452</v>
+        <v>1.044201202134417</v>
       </c>
       <c r="J18">
-        <v>1.008073206981241</v>
+        <v>1.009686509263188</v>
       </c>
       <c r="K18">
-        <v>1.02198925515131</v>
+        <v>1.023290797413495</v>
       </c>
       <c r="L18">
-        <v>1.004333997257991</v>
+        <v>1.00577660182676</v>
       </c>
       <c r="M18">
-        <v>1.039229597788572</v>
+        <v>1.039412826546386</v>
       </c>
       <c r="N18">
-        <v>1.006505506996747</v>
+        <v>1.009777556066774</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040514033917161</v>
+        <v>1.040658905486135</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.02668757897949</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.02762349801467</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018616465659536</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9805757275854552</v>
+        <v>0.9822588921936222</v>
       </c>
       <c r="D19">
-        <v>1.008547939991651</v>
+        <v>1.009861372173632</v>
       </c>
       <c r="E19">
-        <v>0.990563908996952</v>
+        <v>0.9920449968322443</v>
       </c>
       <c r="F19">
-        <v>1.023524239913995</v>
+        <v>1.02371161884891</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.043376483282228</v>
+        <v>1.04401757393178</v>
       </c>
       <c r="J19">
-        <v>1.008254140332381</v>
+        <v>1.00987065008289</v>
       </c>
       <c r="K19">
-        <v>1.022156977432621</v>
+        <v>1.023448386927958</v>
       </c>
       <c r="L19">
-        <v>1.004482104048995</v>
+        <v>1.005937182221605</v>
       </c>
       <c r="M19">
-        <v>1.036886469002739</v>
+        <v>1.037070818664175</v>
       </c>
       <c r="N19">
-        <v>1.00647106436371</v>
+        <v>1.00975663573647</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.03833529032802</v>
+        <v>1.038481095790958</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026812643665951</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027742014737419</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018621313472156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9784557196740948</v>
+        <v>0.980396678655604</v>
       </c>
       <c r="D20">
-        <v>1.007063774680615</v>
+        <v>1.008601763616493</v>
       </c>
       <c r="E20">
-        <v>0.9887895526735848</v>
+        <v>0.9905147591064563</v>
       </c>
       <c r="F20">
-        <v>1.017341841408935</v>
+        <v>1.01756804841622</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042105783902641</v>
+        <v>1.042857668554816</v>
       </c>
       <c r="J20">
-        <v>1.00684316482247</v>
+        <v>1.008704765965306</v>
       </c>
       <c r="K20">
-        <v>1.020983543003305</v>
+        <v>1.022495029089385</v>
       </c>
       <c r="L20">
-        <v>1.003032430752286</v>
+        <v>1.004726471064096</v>
       </c>
       <c r="M20">
-        <v>1.031086458803559</v>
+        <v>1.031308862277035</v>
       </c>
       <c r="N20">
-        <v>1.005826922365142</v>
+        <v>1.009407935494947</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033216350617643</v>
+        <v>1.033392360994231</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.025986934207594</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.02707230236405</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018346491134241</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9725515319705614</v>
+        <v>0.9751322241326409</v>
       </c>
       <c r="D21">
-        <v>1.003181031952494</v>
+        <v>1.005290639059455</v>
       </c>
       <c r="E21">
-        <v>0.9841140452452826</v>
+        <v>0.9864125922557525</v>
       </c>
       <c r="F21">
-        <v>1.013011498686344</v>
+        <v>1.013325522426278</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040428999164732</v>
+        <v>1.041459622560643</v>
       </c>
       <c r="J21">
-        <v>1.003243441819398</v>
+        <v>1.005707749505818</v>
       </c>
       <c r="K21">
-        <v>1.01810238828447</v>
+        <v>1.02017246714545</v>
       </c>
       <c r="L21">
-        <v>0.9994027642711322</v>
+        <v>1.00165603704328</v>
       </c>
       <c r="M21">
-        <v>1.027750487173987</v>
+        <v>1.028058761305656</v>
       </c>
       <c r="N21">
-        <v>1.00456209681097</v>
+        <v>1.009016598064295</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030534969577233</v>
+        <v>1.030778951275726</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.023953084167389</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025433749966096</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017834765439847</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9687554903308288</v>
+        <v>0.9717475133025881</v>
       </c>
       <c r="D22">
-        <v>1.000692299702668</v>
+        <v>1.003168963796855</v>
       </c>
       <c r="E22">
-        <v>0.9811196287091615</v>
+        <v>0.9837865647678179</v>
       </c>
       <c r="F22">
-        <v>1.010504565930109</v>
+        <v>1.010875565011363</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.039376167104879</v>
+        <v>1.040585474242114</v>
       </c>
       <c r="J22">
-        <v>1.000931039101083</v>
+        <v>1.003779844829925</v>
       </c>
       <c r="K22">
-        <v>1.016250054464923</v>
+        <v>1.018677903212501</v>
       </c>
       <c r="L22">
-        <v>0.9970746231700476</v>
+        <v>0.9996862038135976</v>
       </c>
       <c r="M22">
-        <v>1.02587075859046</v>
+        <v>1.026234610316778</v>
       </c>
       <c r="N22">
-        <v>1.003753437923316</v>
+        <v>1.008758028620834</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.02904726789329</v>
+        <v>1.029335236751929</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.022629665514947</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024362022629944</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017505089227557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9707614524735119</v>
+        <v>0.9735170414572644</v>
       </c>
       <c r="D23">
-        <v>1.002001305973901</v>
+        <v>1.004270560475167</v>
       </c>
       <c r="E23">
-        <v>0.9826982854374919</v>
+        <v>0.9851527695701141</v>
       </c>
       <c r="F23">
-        <v>1.011836541376939</v>
+        <v>1.012175325041645</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.039930459757898</v>
+        <v>1.041038800268081</v>
       </c>
       <c r="J23">
-        <v>1.002147751036618</v>
+        <v>1.004775507461141</v>
       </c>
       <c r="K23">
-        <v>1.01722132565345</v>
+        <v>1.019447026706746</v>
       </c>
       <c r="L23">
-        <v>0.9982995004899698</v>
+        <v>1.00070442228522</v>
       </c>
       <c r="M23">
-        <v>1.026869637994554</v>
+        <v>1.027202067425738</v>
       </c>
       <c r="N23">
-        <v>1.004175435197942</v>
+        <v>1.008843812357891</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.029837826345152</v>
+        <v>1.030100925869996</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.023306631049065</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.024895118308847</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017671079480088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9784888511426614</v>
+        <v>0.9804349070293904</v>
       </c>
       <c r="D24">
-        <v>1.007063861898026</v>
+        <v>1.008604654560642</v>
       </c>
       <c r="E24">
-        <v>0.9888031008365677</v>
+        <v>0.9905345184308941</v>
       </c>
       <c r="F24">
-        <v>1.016968370337858</v>
+        <v>1.017195496961556</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042041620242194</v>
+        <v>1.042795010796961</v>
       </c>
       <c r="J24">
-        <v>1.006840861444406</v>
+        <v>1.008707471717042</v>
       </c>
       <c r="K24">
-        <v>1.020968053491007</v>
+        <v>1.022482329248475</v>
       </c>
       <c r="L24">
-        <v>1.003029741797137</v>
+        <v>1.004729922888716</v>
       </c>
       <c r="M24">
-        <v>1.030703913951226</v>
+        <v>1.03092722286937</v>
       </c>
       <c r="N24">
-        <v>1.005808671440312</v>
+        <v>1.009393716786381</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03287243784175</v>
+        <v>1.033049173752303</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.02594820868688</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027032897728734</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018334666966267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9870821660688148</v>
+        <v>0.9884015666122876</v>
       </c>
       <c r="D25">
-        <v>1.012712268933863</v>
+        <v>1.013629708978395</v>
       </c>
       <c r="E25">
-        <v>0.9956274237829775</v>
+        <v>0.9968085501326092</v>
       </c>
       <c r="F25">
-        <v>1.022698945279065</v>
+        <v>1.022832357857598</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.044326379303206</v>
+        <v>1.044775580625932</v>
       </c>
       <c r="J25">
-        <v>1.012052226972854</v>
+        <v>1.013325669741406</v>
       </c>
       <c r="K25">
-        <v>1.025116397188194</v>
+        <v>1.026020062618646</v>
       </c>
       <c r="L25">
-        <v>1.008293999734182</v>
+        <v>1.00945661210441</v>
       </c>
       <c r="M25">
-        <v>1.03495481977559</v>
+        <v>1.035086276698382</v>
       </c>
       <c r="N25">
-        <v>1.007621093268416</v>
+        <v>1.01061010814289</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03623677284864</v>
+        <v>1.036340812801638</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028878468663039</v>
+        <v>1.029531086289742</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019119937908179</v>
       </c>
     </row>
   </sheetData>
